--- a/Data/Textbausteine_LENA_Juni2023.xlsx
+++ b/Data/Textbausteine_LENA_Juni2023.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="672">
   <si>
     <t>Text_ID</t>
   </si>
@@ -1132,7 +1132,7 @@
     <t>HistoricPhrase_Ja_Ja_Nein</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte die Gemeinde #Gemeinde_d ebenfalls Ja gesagt, bei der ersten im Juni 2021 hingegen Nein. </t>
+    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte #Gemeinde_d ebenfalls Ja gesagt, bei der ersten im Juni 2021 hingegen Nein. </t>
   </si>
   <si>
     <t>#Gemeinde_f a accepté les deux dernières votations sur la loi Covid, mais pas la première.</t>
@@ -1149,7 +1149,7 @@
     <t>HistoricPhrase_Ja_Nein_Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte die Gemeinde #Gemeinde_d Nein gesagt, bei der ersten im Juni 2021 hingegen wie dieses Mal Ja. </t>
+    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte #Gemeinde_d Nein gesagt, bei der ersten im Juni 2021 hingegen wie dieses Mal Ja. </t>
   </si>
   <si>
     <t xml:space="preserve">#Gemeine_f a voté non lors de la deuxième votation sur le Covid en novembre 2021, mais oui à la première six mois plus tôt. </t>
@@ -1163,7 +1163,7 @@
     <t>HistoricPhrase_Ja_Nein_Nein</t>
   </si>
   <si>
-    <t xml:space="preserve">Damit hat in Gemeinde #Gemeinde_d ein Meinungsumschwung stattgefunden. Die beiden letzten Covid-19-Abstimmungen im November 2021 und im Juni 2021 hatte die Gemeinde noch abgelehnt. </t>
+    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Die beiden letzten Covid-19-Abstimmungen im November 2021 und im Juni 2021 hatte die Gemeinde noch abgelehnt. </t>
   </si>
   <si>
     <t xml:space="preserve">C'est la première fois que #Gemeinde_f approuve une loi sur le Covid. Elle avait voté non lors des deux précédents scrutins sur cette question, respectivement en juin et en novembre 2021. </t>
@@ -1195,7 +1195,7 @@
     <t>HistoricPhrase_Nein_Nein_Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte die Gemeinde #Gemeinde_d ebenfalls Nein gesagt, bei der ersten im Juni 2021 hingegen Ja. </t>
+    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte #Gemeinde_d ebenfalls Nein gesagt, bei der ersten im Juni 2021 hingegen Ja. </t>
   </si>
   <si>
     <t>#Gemeinde_f a seulement voté oui à la première loi sur le Covid. Les deux modifications ont mordu la poussière.</t>
@@ -1212,7 +1212,7 @@
     <t>HistoricPhrase_Nein_Ja_Nein</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte die Gemeinde #Gemeinde_d noch Ja gesagt, bei der ersten im Juni 2021 hingegen wie dieses Mal ebenfalls Nein. </t>
+    <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte #Gemeinde_d noch Ja gesagt, bei der ersten im Juni 2021 hingegen wie dieses Mal ebenfalls Nein. </t>
   </si>
   <si>
     <t>Seule la première modification de la loi Covid, acceptée en novembre 2021, a passé la rampe à #Gemeinde_f,. La première votation en juin 2021 et la dernière modification ont elles essuyé un refus.</t>
@@ -1226,7 +1226,7 @@
     <t>HistoricPhrase_Nein_Ja_Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Damit hat in Gemeinde #Gemeinde_d ein Meinungsumschwung stattgefunden. Den beiden letzten Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte die Gemeinde noch zugestimmt. </t>
+    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Den beiden letzten Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte die Gemeinde noch zugestimmt. </t>
   </si>
   <si>
     <t>#Gemeinde_f a refusé la première votation sur la loi Covid. Elle a ensuite accepté les deux modifications proposées.</t>
@@ -1844,16 +1844,10 @@
     <t>Vorlage_i</t>
   </si>
   <si>
-    <t>AG</t>
+    <t>ZH</t>
   </si>
   <si>
-    <t>Aargauische Volksinitiative "Klimaschutz braucht Initiative!"</t>
-  </si>
-  <si>
-    <t>Gesetz über die Ombudsstelle (Ombudsgesetz)</t>
-  </si>
-  <si>
-    <t>Verdichtung des Bahnangebots der Regio-S-Bahn Stein-Säckingen–Laufenburg  - Verpflichtungskredit</t>
+    <t>Kirchenordnung der Römisch-katholischen Körperschaft (Änderung vom 1. Dezember 2022)</t>
   </si>
   <si>
     <t>BE</t>
@@ -1862,22 +1856,118 @@
     <t>Änderung der Kantonsverfassung (Anpassungen bei den Schuldenbremsen)</t>
   </si>
   <si>
-    <t>Modification de la Constitution cantonale (ajustements des freins à l'endettement)</t>
+    <t>Modification de la Constitution cantonale (ajustements des freins à l’endettement)</t>
   </si>
   <si>
-    <t>Volksinitative "Für eine kantonale Elternzeit"</t>
+    <t>Volksinitiative "Für eine kantonale Elternzeit"</t>
   </si>
   <si>
-    <t>Initiative populaire "Pour un congé partental cantonal"</t>
+    <t>Initiative populaire « Pour un congé parental cantonal »</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Ost- und Westumfahrung Flecken Beromünster</t>
+  </si>
+  <si>
+    <t>Neues Naturhistorisches Museum</t>
+  </si>
+  <si>
+    <t>Nouveau Musée d'histoire naturelle</t>
   </si>
   <si>
     <t>SO</t>
   </si>
   <si>
-    <t>Gesetzesinitiative "Zwillingsinitiative 1 – Hände weg vom Katasterwert!"</t>
+    <t>Änderung des Gesundheitsgesetzes (GesG): Zulassung von Leistungserbringern im ambulanten Bereich</t>
   </si>
   <si>
-    <t>"Zwillingsinitiative 2 – Hände weg von den Abzügen!"</t>
+    <t>Gesetzesinitiative «Zwillingsinitiative 1 – Hände weg vom Katasterwert!»</t>
+  </si>
+  <si>
+    <t>Gesetzesinitiative «Zwillingsinitiative 2 – Hände weg von den Abzügen!»</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Kreditbeschluss zur Fortführung der palliativen Spezialversorgung im Kanton Schaffhausen</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Kantonsratsbeschluss über die Erhöhung des Eigenkapitals der Spitalregion Rheintal Werdenberg Sarganserland in Form einer Umwandlung von Kontokorrent-Darlehen</t>
+  </si>
+  <si>
+    <t>Kantonsratsbeschluss über die Erhöhung des Eigenkapitals des Spitals Linth in Form einer Umwandlung von Kontokorrent-Darlehen und eines Betriebsdarlehens</t>
+  </si>
+  <si>
+    <t>Kantonsratsbeschluss über die Darlehensgewährung an die Spitalregion Rheintal Werdenberg Sarganserland für verschiedene Bauvorhaben am Standort Grabs</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Gesetz über die Ombudsstelle (Ombudsgesetz)</t>
+  </si>
+  <si>
+    <t>Verdichtung des Bahnangebots der Regio-S-Bahn Stein-Säckingen–Laufenburg; Verpflichtungskredit</t>
+  </si>
+  <si>
+    <t>Aargauische Volksinitiative "Klimaschutz braucht Initiative! (Aargauische Klimaschutzinitiative)"</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Änderung des Gesetzes über die Energienutzung</t>
+  </si>
+  <si>
+    <t>Kreditbegehren über 127.2 Mio. Franken (Fr. 127'203'243.85) betreffend die Verwendung des Agios aus der Ausgabe von Partizipationsscheinen der Thurgauer Kantonalbank (TKB)</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Modifica della legge sull’apertura dei negozi</t>
+  </si>
+  <si>
+    <t>Modifica della legge tributaria</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>Initiative populaire « Pour la protection du climat</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>IN 181 initiative 1000 emplois</t>
+  </si>
+  <si>
+    <t>IN 184 « Pour un congé parental maintenant ! »</t>
+  </si>
+  <si>
+    <t>IN185 «Pour une contribution temporaire de solidarité sur les grandes fortunes »</t>
+  </si>
+  <si>
+    <t>Loi constitutionnelle protection dans l'espace numérique</t>
+  </si>
+  <si>
+    <t>Loi constitutionnelle Droit à l'alimentation</t>
+  </si>
+  <si>
+    <t>Loi estimations fiscales de certains immeubles (LEFI)</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>Modification du 22 juin 2022 de la Constitution de la République et Canton du Jura du 20 mars 1977 (destitution de membres d'autorités)</t>
   </si>
   <si>
     <t>Variable</t>
@@ -2148,7 +2238,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2280,12 +2370,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2293,7 +2377,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -32313,10 +32397,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.75"/>
-    <col customWidth="1" min="2" max="2" width="10.88"/>
-    <col customWidth="1" min="3" max="3" width="52.13"/>
-    <col customWidth="1" min="4" max="4" width="60.5"/>
-    <col customWidth="1" min="5" max="5" width="49.75"/>
+    <col customWidth="1" min="2" max="2" width="9.63"/>
+    <col customWidth="1" min="3" max="3" width="78.25"/>
+    <col customWidth="1" min="4" max="4" width="60.25"/>
+    <col customWidth="1" min="5" max="5" width="33.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32337,215 +32421,360 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="22">
+        <v>242824.0</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="22">
+        <v>243141.0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="22">
+        <v>243142.0</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>604</v>
+      </c>
+      <c r="B5" s="4">
+        <v>243209.0</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>603</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>528</v>
+      </c>
+      <c r="B6" s="4">
+        <v>243008.0</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>608</v>
+      </c>
+      <c r="B7" s="4">
+        <v>244588.0</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B8" s="41"/>
+        <v>608</v>
+      </c>
+      <c r="B8" s="41">
+        <v>244589.0</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="45">
+        <v>244590.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B10" s="4">
+        <v>244575.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B11" s="4">
+        <v>242826.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>615</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B12" s="41">
+        <v>242827.0</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>616</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B13" s="46">
+        <v>242828.0</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>617</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B14" s="22">
+        <v>244387.0</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>619</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B15" s="22">
+        <v>244388.0</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>620</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="49"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="B16" s="4">
+        <v>244389.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>621</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="49"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="B17" s="4">
+        <v>243240.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>623</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B18" s="4">
+        <v>243241.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B19" s="4">
+        <v>243977.0</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="22" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B20" s="4">
+        <v>244018.0</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="22" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B21" s="4">
+        <v>243847.0</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="22" t="s">
+        <v>629</v>
+      </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22">
-      <c r="B22" s="14"/>
+      <c r="A22" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B22" s="22">
+        <v>244955.0</v>
+      </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="22" t="s">
+        <v>631</v>
+      </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23">
-      <c r="B23" s="14"/>
+      <c r="A23" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B23" s="22">
+        <v>244956.0</v>
+      </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="22" t="s">
+        <v>632</v>
+      </c>
       <c r="E23" s="14"/>
     </row>
     <row r="24">
-      <c r="B24" s="14"/>
+      <c r="A24" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B24" s="22">
+        <v>244957.0</v>
+      </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="22" t="s">
+        <v>633</v>
+      </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25">
-      <c r="B25" s="14"/>
+      <c r="A25" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B25" s="22">
+        <v>244963.0</v>
+      </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="22" t="s">
+        <v>634</v>
+      </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26">
-      <c r="B26" s="14"/>
+      <c r="A26" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B26" s="22">
+        <v>244964.0</v>
+      </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="22" t="s">
+        <v>635</v>
+      </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27">
-      <c r="B27" s="14"/>
+      <c r="A27" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B27" s="22">
+        <v>244965.0</v>
+      </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="22" t="s">
+        <v>636</v>
+      </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28">
-      <c r="B28" s="14"/>
+      <c r="A28" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B28" s="22">
+        <v>243908.0</v>
+      </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="22" t="s">
+        <v>638</v>
+      </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29">
@@ -38291,3121 +38520,3121 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
-        <v>609</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>610</v>
+      <c r="A1" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>612</v>
+        <v>641</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>614</v>
+        <v>643</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>616</v>
+        <v>645</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>618</v>
+        <v>647</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B6" s="52">
+        <v>649</v>
+      </c>
+      <c r="B6" s="50">
         <v>60.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B7" s="52">
+        <v>650</v>
+      </c>
+      <c r="B7" s="50">
         <v>39.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>622</v>
+        <v>651</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>624</v>
+        <v>653</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B10" s="52">
+        <v>655</v>
+      </c>
+      <c r="B10" s="50">
         <v>60.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B11" s="52">
+        <v>656</v>
+      </c>
+      <c r="B11" s="50">
         <v>39.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>622</v>
+        <v>657</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>624</v>
+        <v>658</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>630</v>
+        <v>659</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="53"/>
+      <c r="B15" s="51"/>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>631</v>
-      </c>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16" s="51"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B17" s="52">
+        <v>662</v>
+      </c>
+      <c r="B17" s="50">
         <v>60.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B18" s="52">
+        <v>663</v>
+      </c>
+      <c r="B18" s="50">
         <v>39.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>622</v>
+        <v>664</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>624</v>
+        <v>665</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B21" s="52">
+        <v>666</v>
+      </c>
+      <c r="B21" s="50">
         <v>60.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B22" s="52">
+        <v>667</v>
+      </c>
+      <c r="B22" s="50">
         <v>39.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>622</v>
+        <v>668</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>624</v>
+        <v>669</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="B25" s="52">
+        <v>670</v>
+      </c>
+      <c r="B25" s="50">
         <v>60.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="B26" s="52">
+        <v>671</v>
+      </c>
+      <c r="B26" s="50">
         <v>39.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="53"/>
+      <c r="B27" s="51"/>
     </row>
     <row r="28">
-      <c r="B28" s="53"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29">
-      <c r="B29" s="53"/>
+      <c r="B29" s="51"/>
     </row>
     <row r="30">
-      <c r="B30" s="53"/>
+      <c r="B30" s="51"/>
     </row>
     <row r="31">
-      <c r="B31" s="53"/>
+      <c r="B31" s="51"/>
     </row>
     <row r="32">
-      <c r="B32" s="53"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33">
-      <c r="B33" s="53"/>
+      <c r="B33" s="51"/>
     </row>
     <row r="34">
-      <c r="B34" s="53"/>
+      <c r="B34" s="51"/>
     </row>
     <row r="35">
-      <c r="B35" s="53"/>
+      <c r="B35" s="51"/>
     </row>
     <row r="36">
-      <c r="B36" s="53"/>
+      <c r="B36" s="51"/>
     </row>
     <row r="37">
-      <c r="B37" s="53"/>
+      <c r="B37" s="51"/>
     </row>
     <row r="38">
-      <c r="B38" s="53"/>
+      <c r="B38" s="51"/>
     </row>
     <row r="39">
-      <c r="B39" s="53"/>
+      <c r="B39" s="51"/>
     </row>
     <row r="40">
-      <c r="B40" s="53"/>
+      <c r="B40" s="51"/>
     </row>
     <row r="41">
-      <c r="B41" s="53"/>
+      <c r="B41" s="51"/>
     </row>
     <row r="42">
-      <c r="B42" s="53"/>
+      <c r="B42" s="51"/>
     </row>
     <row r="43">
-      <c r="B43" s="53"/>
+      <c r="B43" s="51"/>
     </row>
     <row r="44">
-      <c r="B44" s="53"/>
+      <c r="B44" s="51"/>
     </row>
     <row r="45">
-      <c r="B45" s="53"/>
+      <c r="B45" s="51"/>
     </row>
     <row r="46">
-      <c r="B46" s="53"/>
+      <c r="B46" s="51"/>
     </row>
     <row r="47">
-      <c r="B47" s="53"/>
+      <c r="B47" s="51"/>
     </row>
     <row r="48">
-      <c r="B48" s="53"/>
+      <c r="B48" s="51"/>
     </row>
     <row r="49">
-      <c r="B49" s="53"/>
+      <c r="B49" s="51"/>
     </row>
     <row r="50">
-      <c r="B50" s="53"/>
+      <c r="B50" s="51"/>
     </row>
     <row r="51">
-      <c r="B51" s="53"/>
+      <c r="B51" s="51"/>
     </row>
     <row r="52">
-      <c r="B52" s="53"/>
+      <c r="B52" s="51"/>
     </row>
     <row r="53">
-      <c r="B53" s="53"/>
+      <c r="B53" s="51"/>
     </row>
     <row r="54">
-      <c r="B54" s="53"/>
+      <c r="B54" s="51"/>
     </row>
     <row r="55">
-      <c r="B55" s="53"/>
+      <c r="B55" s="51"/>
     </row>
     <row r="56">
-      <c r="B56" s="53"/>
+      <c r="B56" s="51"/>
     </row>
     <row r="57">
-      <c r="B57" s="53"/>
+      <c r="B57" s="51"/>
     </row>
     <row r="58">
-      <c r="B58" s="53"/>
+      <c r="B58" s="51"/>
     </row>
     <row r="59">
-      <c r="B59" s="53"/>
+      <c r="B59" s="51"/>
     </row>
     <row r="60">
-      <c r="B60" s="53"/>
+      <c r="B60" s="51"/>
     </row>
     <row r="61">
-      <c r="B61" s="53"/>
+      <c r="B61" s="51"/>
     </row>
     <row r="62">
-      <c r="B62" s="53"/>
+      <c r="B62" s="51"/>
     </row>
     <row r="63">
-      <c r="B63" s="53"/>
+      <c r="B63" s="51"/>
     </row>
     <row r="64">
-      <c r="B64" s="53"/>
+      <c r="B64" s="51"/>
     </row>
     <row r="65">
-      <c r="B65" s="53"/>
+      <c r="B65" s="51"/>
     </row>
     <row r="66">
-      <c r="B66" s="53"/>
+      <c r="B66" s="51"/>
     </row>
     <row r="67">
-      <c r="B67" s="53"/>
+      <c r="B67" s="51"/>
     </row>
     <row r="68">
-      <c r="B68" s="53"/>
+      <c r="B68" s="51"/>
     </row>
     <row r="69">
-      <c r="B69" s="53"/>
+      <c r="B69" s="51"/>
     </row>
     <row r="70">
-      <c r="B70" s="53"/>
+      <c r="B70" s="51"/>
     </row>
     <row r="71">
-      <c r="B71" s="53"/>
+      <c r="B71" s="51"/>
     </row>
     <row r="72">
-      <c r="B72" s="53"/>
+      <c r="B72" s="51"/>
     </row>
     <row r="73">
-      <c r="B73" s="53"/>
+      <c r="B73" s="51"/>
     </row>
     <row r="74">
-      <c r="B74" s="53"/>
+      <c r="B74" s="51"/>
     </row>
     <row r="75">
-      <c r="B75" s="53"/>
+      <c r="B75" s="51"/>
     </row>
     <row r="76">
-      <c r="B76" s="53"/>
+      <c r="B76" s="51"/>
     </row>
     <row r="77">
-      <c r="B77" s="53"/>
+      <c r="B77" s="51"/>
     </row>
     <row r="78">
-      <c r="B78" s="53"/>
+      <c r="B78" s="51"/>
     </row>
     <row r="79">
-      <c r="B79" s="53"/>
+      <c r="B79" s="51"/>
     </row>
     <row r="80">
-      <c r="B80" s="53"/>
+      <c r="B80" s="51"/>
     </row>
     <row r="81">
-      <c r="B81" s="53"/>
+      <c r="B81" s="51"/>
     </row>
     <row r="82">
-      <c r="B82" s="53"/>
+      <c r="B82" s="51"/>
     </row>
     <row r="83">
-      <c r="B83" s="53"/>
+      <c r="B83" s="51"/>
     </row>
     <row r="84">
-      <c r="B84" s="53"/>
+      <c r="B84" s="51"/>
     </row>
     <row r="85">
-      <c r="B85" s="53"/>
+      <c r="B85" s="51"/>
     </row>
     <row r="86">
-      <c r="B86" s="53"/>
+      <c r="B86" s="51"/>
     </row>
     <row r="87">
-      <c r="B87" s="53"/>
+      <c r="B87" s="51"/>
     </row>
     <row r="88">
-      <c r="B88" s="53"/>
+      <c r="B88" s="51"/>
     </row>
     <row r="89">
-      <c r="B89" s="53"/>
+      <c r="B89" s="51"/>
     </row>
     <row r="90">
-      <c r="B90" s="53"/>
+      <c r="B90" s="51"/>
     </row>
     <row r="91">
-      <c r="B91" s="53"/>
+      <c r="B91" s="51"/>
     </row>
     <row r="92">
-      <c r="B92" s="53"/>
+      <c r="B92" s="51"/>
     </row>
     <row r="93">
-      <c r="B93" s="53"/>
+      <c r="B93" s="51"/>
     </row>
     <row r="94">
-      <c r="B94" s="53"/>
+      <c r="B94" s="51"/>
     </row>
     <row r="95">
-      <c r="B95" s="53"/>
+      <c r="B95" s="51"/>
     </row>
     <row r="96">
-      <c r="B96" s="53"/>
+      <c r="B96" s="51"/>
     </row>
     <row r="97">
-      <c r="B97" s="53"/>
+      <c r="B97" s="51"/>
     </row>
     <row r="98">
-      <c r="B98" s="53"/>
+      <c r="B98" s="51"/>
     </row>
     <row r="99">
-      <c r="B99" s="53"/>
+      <c r="B99" s="51"/>
     </row>
     <row r="100">
-      <c r="B100" s="53"/>
+      <c r="B100" s="51"/>
     </row>
     <row r="101">
-      <c r="B101" s="53"/>
+      <c r="B101" s="51"/>
     </row>
     <row r="102">
-      <c r="B102" s="53"/>
+      <c r="B102" s="51"/>
     </row>
     <row r="103">
-      <c r="B103" s="53"/>
+      <c r="B103" s="51"/>
     </row>
     <row r="104">
-      <c r="B104" s="53"/>
+      <c r="B104" s="51"/>
     </row>
     <row r="105">
-      <c r="B105" s="53"/>
+      <c r="B105" s="51"/>
     </row>
     <row r="106">
-      <c r="B106" s="53"/>
+      <c r="B106" s="51"/>
     </row>
     <row r="107">
-      <c r="B107" s="53"/>
+      <c r="B107" s="51"/>
     </row>
     <row r="108">
-      <c r="B108" s="53"/>
+      <c r="B108" s="51"/>
     </row>
     <row r="109">
-      <c r="B109" s="53"/>
+      <c r="B109" s="51"/>
     </row>
     <row r="110">
-      <c r="B110" s="53"/>
+      <c r="B110" s="51"/>
     </row>
     <row r="111">
-      <c r="B111" s="53"/>
+      <c r="B111" s="51"/>
     </row>
     <row r="112">
-      <c r="B112" s="53"/>
+      <c r="B112" s="51"/>
     </row>
     <row r="113">
-      <c r="B113" s="53"/>
+      <c r="B113" s="51"/>
     </row>
     <row r="114">
-      <c r="B114" s="53"/>
+      <c r="B114" s="51"/>
     </row>
     <row r="115">
-      <c r="B115" s="53"/>
+      <c r="B115" s="51"/>
     </row>
     <row r="116">
-      <c r="B116" s="53"/>
+      <c r="B116" s="51"/>
     </row>
     <row r="117">
-      <c r="B117" s="53"/>
+      <c r="B117" s="51"/>
     </row>
     <row r="118">
-      <c r="B118" s="53"/>
+      <c r="B118" s="51"/>
     </row>
     <row r="119">
-      <c r="B119" s="53"/>
+      <c r="B119" s="51"/>
     </row>
     <row r="120">
-      <c r="B120" s="53"/>
+      <c r="B120" s="51"/>
     </row>
     <row r="121">
-      <c r="B121" s="53"/>
+      <c r="B121" s="51"/>
     </row>
     <row r="122">
-      <c r="B122" s="53"/>
+      <c r="B122" s="51"/>
     </row>
     <row r="123">
-      <c r="B123" s="53"/>
+      <c r="B123" s="51"/>
     </row>
     <row r="124">
-      <c r="B124" s="53"/>
+      <c r="B124" s="51"/>
     </row>
     <row r="125">
-      <c r="B125" s="53"/>
+      <c r="B125" s="51"/>
     </row>
     <row r="126">
-      <c r="B126" s="53"/>
+      <c r="B126" s="51"/>
     </row>
     <row r="127">
-      <c r="B127" s="53"/>
+      <c r="B127" s="51"/>
     </row>
     <row r="128">
-      <c r="B128" s="53"/>
+      <c r="B128" s="51"/>
     </row>
     <row r="129">
-      <c r="B129" s="53"/>
+      <c r="B129" s="51"/>
     </row>
     <row r="130">
-      <c r="B130" s="53"/>
+      <c r="B130" s="51"/>
     </row>
     <row r="131">
-      <c r="B131" s="53"/>
+      <c r="B131" s="51"/>
     </row>
     <row r="132">
-      <c r="B132" s="53"/>
+      <c r="B132" s="51"/>
     </row>
     <row r="133">
-      <c r="B133" s="53"/>
+      <c r="B133" s="51"/>
     </row>
     <row r="134">
-      <c r="B134" s="53"/>
+      <c r="B134" s="51"/>
     </row>
     <row r="135">
-      <c r="B135" s="53"/>
+      <c r="B135" s="51"/>
     </row>
     <row r="136">
-      <c r="B136" s="53"/>
+      <c r="B136" s="51"/>
     </row>
     <row r="137">
-      <c r="B137" s="53"/>
+      <c r="B137" s="51"/>
     </row>
     <row r="138">
-      <c r="B138" s="53"/>
+      <c r="B138" s="51"/>
     </row>
     <row r="139">
-      <c r="B139" s="53"/>
+      <c r="B139" s="51"/>
     </row>
     <row r="140">
-      <c r="B140" s="53"/>
+      <c r="B140" s="51"/>
     </row>
     <row r="141">
-      <c r="B141" s="53"/>
+      <c r="B141" s="51"/>
     </row>
     <row r="142">
-      <c r="B142" s="53"/>
+      <c r="B142" s="51"/>
     </row>
     <row r="143">
-      <c r="B143" s="53"/>
+      <c r="B143" s="51"/>
     </row>
     <row r="144">
-      <c r="B144" s="53"/>
+      <c r="B144" s="51"/>
     </row>
     <row r="145">
-      <c r="B145" s="53"/>
+      <c r="B145" s="51"/>
     </row>
     <row r="146">
-      <c r="B146" s="53"/>
+      <c r="B146" s="51"/>
     </row>
     <row r="147">
-      <c r="B147" s="53"/>
+      <c r="B147" s="51"/>
     </row>
     <row r="148">
-      <c r="B148" s="53"/>
+      <c r="B148" s="51"/>
     </row>
     <row r="149">
-      <c r="B149" s="53"/>
+      <c r="B149" s="51"/>
     </row>
     <row r="150">
-      <c r="B150" s="53"/>
+      <c r="B150" s="51"/>
     </row>
     <row r="151">
-      <c r="B151" s="53"/>
+      <c r="B151" s="51"/>
     </row>
     <row r="152">
-      <c r="B152" s="53"/>
+      <c r="B152" s="51"/>
     </row>
     <row r="153">
-      <c r="B153" s="53"/>
+      <c r="B153" s="51"/>
     </row>
     <row r="154">
-      <c r="B154" s="53"/>
+      <c r="B154" s="51"/>
     </row>
     <row r="155">
-      <c r="B155" s="53"/>
+      <c r="B155" s="51"/>
     </row>
     <row r="156">
-      <c r="B156" s="53"/>
+      <c r="B156" s="51"/>
     </row>
     <row r="157">
-      <c r="B157" s="53"/>
+      <c r="B157" s="51"/>
     </row>
     <row r="158">
-      <c r="B158" s="53"/>
+      <c r="B158" s="51"/>
     </row>
     <row r="159">
-      <c r="B159" s="53"/>
+      <c r="B159" s="51"/>
     </row>
     <row r="160">
-      <c r="B160" s="53"/>
+      <c r="B160" s="51"/>
     </row>
     <row r="161">
-      <c r="B161" s="53"/>
+      <c r="B161" s="51"/>
     </row>
     <row r="162">
-      <c r="B162" s="53"/>
+      <c r="B162" s="51"/>
     </row>
     <row r="163">
-      <c r="B163" s="53"/>
+      <c r="B163" s="51"/>
     </row>
     <row r="164">
-      <c r="B164" s="53"/>
+      <c r="B164" s="51"/>
     </row>
     <row r="165">
-      <c r="B165" s="53"/>
+      <c r="B165" s="51"/>
     </row>
     <row r="166">
-      <c r="B166" s="53"/>
+      <c r="B166" s="51"/>
     </row>
     <row r="167">
-      <c r="B167" s="53"/>
+      <c r="B167" s="51"/>
     </row>
     <row r="168">
-      <c r="B168" s="53"/>
+      <c r="B168" s="51"/>
     </row>
     <row r="169">
-      <c r="B169" s="53"/>
+      <c r="B169" s="51"/>
     </row>
     <row r="170">
-      <c r="B170" s="53"/>
+      <c r="B170" s="51"/>
     </row>
     <row r="171">
-      <c r="B171" s="53"/>
+      <c r="B171" s="51"/>
     </row>
     <row r="172">
-      <c r="B172" s="53"/>
+      <c r="B172" s="51"/>
     </row>
     <row r="173">
-      <c r="B173" s="53"/>
+      <c r="B173" s="51"/>
     </row>
     <row r="174">
-      <c r="B174" s="53"/>
+      <c r="B174" s="51"/>
     </row>
     <row r="175">
-      <c r="B175" s="53"/>
+      <c r="B175" s="51"/>
     </row>
     <row r="176">
-      <c r="B176" s="53"/>
+      <c r="B176" s="51"/>
     </row>
     <row r="177">
-      <c r="B177" s="53"/>
+      <c r="B177" s="51"/>
     </row>
     <row r="178">
-      <c r="B178" s="53"/>
+      <c r="B178" s="51"/>
     </row>
     <row r="179">
-      <c r="B179" s="53"/>
+      <c r="B179" s="51"/>
     </row>
     <row r="180">
-      <c r="B180" s="53"/>
+      <c r="B180" s="51"/>
     </row>
     <row r="181">
-      <c r="B181" s="53"/>
+      <c r="B181" s="51"/>
     </row>
     <row r="182">
-      <c r="B182" s="53"/>
+      <c r="B182" s="51"/>
     </row>
     <row r="183">
-      <c r="B183" s="53"/>
+      <c r="B183" s="51"/>
     </row>
     <row r="184">
-      <c r="B184" s="53"/>
+      <c r="B184" s="51"/>
     </row>
     <row r="185">
-      <c r="B185" s="53"/>
+      <c r="B185" s="51"/>
     </row>
     <row r="186">
-      <c r="B186" s="53"/>
+      <c r="B186" s="51"/>
     </row>
     <row r="187">
-      <c r="B187" s="53"/>
+      <c r="B187" s="51"/>
     </row>
     <row r="188">
-      <c r="B188" s="53"/>
+      <c r="B188" s="51"/>
     </row>
     <row r="189">
-      <c r="B189" s="53"/>
+      <c r="B189" s="51"/>
     </row>
     <row r="190">
-      <c r="B190" s="53"/>
+      <c r="B190" s="51"/>
     </row>
     <row r="191">
-      <c r="B191" s="53"/>
+      <c r="B191" s="51"/>
     </row>
     <row r="192">
-      <c r="B192" s="53"/>
+      <c r="B192" s="51"/>
     </row>
     <row r="193">
-      <c r="B193" s="53"/>
+      <c r="B193" s="51"/>
     </row>
     <row r="194">
-      <c r="B194" s="53"/>
+      <c r="B194" s="51"/>
     </row>
     <row r="195">
-      <c r="B195" s="53"/>
+      <c r="B195" s="51"/>
     </row>
     <row r="196">
-      <c r="B196" s="53"/>
+      <c r="B196" s="51"/>
     </row>
     <row r="197">
-      <c r="B197" s="53"/>
+      <c r="B197" s="51"/>
     </row>
     <row r="198">
-      <c r="B198" s="53"/>
+      <c r="B198" s="51"/>
     </row>
     <row r="199">
-      <c r="B199" s="53"/>
+      <c r="B199" s="51"/>
     </row>
     <row r="200">
-      <c r="B200" s="53"/>
+      <c r="B200" s="51"/>
     </row>
     <row r="201">
-      <c r="B201" s="53"/>
+      <c r="B201" s="51"/>
     </row>
     <row r="202">
-      <c r="B202" s="53"/>
+      <c r="B202" s="51"/>
     </row>
     <row r="203">
-      <c r="B203" s="53"/>
+      <c r="B203" s="51"/>
     </row>
     <row r="204">
-      <c r="B204" s="53"/>
+      <c r="B204" s="51"/>
     </row>
     <row r="205">
-      <c r="B205" s="53"/>
+      <c r="B205" s="51"/>
     </row>
     <row r="206">
-      <c r="B206" s="53"/>
+      <c r="B206" s="51"/>
     </row>
     <row r="207">
-      <c r="B207" s="53"/>
+      <c r="B207" s="51"/>
     </row>
     <row r="208">
-      <c r="B208" s="53"/>
+      <c r="B208" s="51"/>
     </row>
     <row r="209">
-      <c r="B209" s="53"/>
+      <c r="B209" s="51"/>
     </row>
     <row r="210">
-      <c r="B210" s="53"/>
+      <c r="B210" s="51"/>
     </row>
     <row r="211">
-      <c r="B211" s="53"/>
+      <c r="B211" s="51"/>
     </row>
     <row r="212">
-      <c r="B212" s="53"/>
+      <c r="B212" s="51"/>
     </row>
     <row r="213">
-      <c r="B213" s="53"/>
+      <c r="B213" s="51"/>
     </row>
     <row r="214">
-      <c r="B214" s="53"/>
+      <c r="B214" s="51"/>
     </row>
     <row r="215">
-      <c r="B215" s="53"/>
+      <c r="B215" s="51"/>
     </row>
     <row r="216">
-      <c r="B216" s="53"/>
+      <c r="B216" s="51"/>
     </row>
     <row r="217">
-      <c r="B217" s="53"/>
+      <c r="B217" s="51"/>
     </row>
     <row r="218">
-      <c r="B218" s="53"/>
+      <c r="B218" s="51"/>
     </row>
     <row r="219">
-      <c r="B219" s="53"/>
+      <c r="B219" s="51"/>
     </row>
     <row r="220">
-      <c r="B220" s="53"/>
+      <c r="B220" s="51"/>
     </row>
     <row r="221">
-      <c r="B221" s="53"/>
+      <c r="B221" s="51"/>
     </row>
     <row r="222">
-      <c r="B222" s="53"/>
+      <c r="B222" s="51"/>
     </row>
     <row r="223">
-      <c r="B223" s="53"/>
+      <c r="B223" s="51"/>
     </row>
     <row r="224">
-      <c r="B224" s="53"/>
+      <c r="B224" s="51"/>
     </row>
     <row r="225">
-      <c r="B225" s="53"/>
+      <c r="B225" s="51"/>
     </row>
     <row r="226">
-      <c r="B226" s="53"/>
+      <c r="B226" s="51"/>
     </row>
     <row r="227">
-      <c r="B227" s="53"/>
+      <c r="B227" s="51"/>
     </row>
     <row r="228">
-      <c r="B228" s="53"/>
+      <c r="B228" s="51"/>
     </row>
     <row r="229">
-      <c r="B229" s="53"/>
+      <c r="B229" s="51"/>
     </row>
     <row r="230">
-      <c r="B230" s="53"/>
+      <c r="B230" s="51"/>
     </row>
     <row r="231">
-      <c r="B231" s="53"/>
+      <c r="B231" s="51"/>
     </row>
     <row r="232">
-      <c r="B232" s="53"/>
+      <c r="B232" s="51"/>
     </row>
     <row r="233">
-      <c r="B233" s="53"/>
+      <c r="B233" s="51"/>
     </row>
     <row r="234">
-      <c r="B234" s="53"/>
+      <c r="B234" s="51"/>
     </row>
     <row r="235">
-      <c r="B235" s="53"/>
+      <c r="B235" s="51"/>
     </row>
     <row r="236">
-      <c r="B236" s="53"/>
+      <c r="B236" s="51"/>
     </row>
     <row r="237">
-      <c r="B237" s="53"/>
+      <c r="B237" s="51"/>
     </row>
     <row r="238">
-      <c r="B238" s="53"/>
+      <c r="B238" s="51"/>
     </row>
     <row r="239">
-      <c r="B239" s="53"/>
+      <c r="B239" s="51"/>
     </row>
     <row r="240">
-      <c r="B240" s="53"/>
+      <c r="B240" s="51"/>
     </row>
     <row r="241">
-      <c r="B241" s="53"/>
+      <c r="B241" s="51"/>
     </row>
     <row r="242">
-      <c r="B242" s="53"/>
+      <c r="B242" s="51"/>
     </row>
     <row r="243">
-      <c r="B243" s="53"/>
+      <c r="B243" s="51"/>
     </row>
     <row r="244">
-      <c r="B244" s="53"/>
+      <c r="B244" s="51"/>
     </row>
     <row r="245">
-      <c r="B245" s="53"/>
+      <c r="B245" s="51"/>
     </row>
     <row r="246">
-      <c r="B246" s="53"/>
+      <c r="B246" s="51"/>
     </row>
     <row r="247">
-      <c r="B247" s="53"/>
+      <c r="B247" s="51"/>
     </row>
     <row r="248">
-      <c r="B248" s="53"/>
+      <c r="B248" s="51"/>
     </row>
     <row r="249">
-      <c r="B249" s="53"/>
+      <c r="B249" s="51"/>
     </row>
     <row r="250">
-      <c r="B250" s="53"/>
+      <c r="B250" s="51"/>
     </row>
     <row r="251">
-      <c r="B251" s="53"/>
+      <c r="B251" s="51"/>
     </row>
     <row r="252">
-      <c r="B252" s="53"/>
+      <c r="B252" s="51"/>
     </row>
     <row r="253">
-      <c r="B253" s="53"/>
+      <c r="B253" s="51"/>
     </row>
     <row r="254">
-      <c r="B254" s="53"/>
+      <c r="B254" s="51"/>
     </row>
     <row r="255">
-      <c r="B255" s="53"/>
+      <c r="B255" s="51"/>
     </row>
     <row r="256">
-      <c r="B256" s="53"/>
+      <c r="B256" s="51"/>
     </row>
     <row r="257">
-      <c r="B257" s="53"/>
+      <c r="B257" s="51"/>
     </row>
     <row r="258">
-      <c r="B258" s="53"/>
+      <c r="B258" s="51"/>
     </row>
     <row r="259">
-      <c r="B259" s="53"/>
+      <c r="B259" s="51"/>
     </row>
     <row r="260">
-      <c r="B260" s="53"/>
+      <c r="B260" s="51"/>
     </row>
     <row r="261">
-      <c r="B261" s="53"/>
+      <c r="B261" s="51"/>
     </row>
     <row r="262">
-      <c r="B262" s="53"/>
+      <c r="B262" s="51"/>
     </row>
     <row r="263">
-      <c r="B263" s="53"/>
+      <c r="B263" s="51"/>
     </row>
     <row r="264">
-      <c r="B264" s="53"/>
+      <c r="B264" s="51"/>
     </row>
     <row r="265">
-      <c r="B265" s="53"/>
+      <c r="B265" s="51"/>
     </row>
     <row r="266">
-      <c r="B266" s="53"/>
+      <c r="B266" s="51"/>
     </row>
     <row r="267">
-      <c r="B267" s="53"/>
+      <c r="B267" s="51"/>
     </row>
     <row r="268">
-      <c r="B268" s="53"/>
+      <c r="B268" s="51"/>
     </row>
     <row r="269">
-      <c r="B269" s="53"/>
+      <c r="B269" s="51"/>
     </row>
     <row r="270">
-      <c r="B270" s="53"/>
+      <c r="B270" s="51"/>
     </row>
     <row r="271">
-      <c r="B271" s="53"/>
+      <c r="B271" s="51"/>
     </row>
     <row r="272">
-      <c r="B272" s="53"/>
+      <c r="B272" s="51"/>
     </row>
     <row r="273">
-      <c r="B273" s="53"/>
+      <c r="B273" s="51"/>
     </row>
     <row r="274">
-      <c r="B274" s="53"/>
+      <c r="B274" s="51"/>
     </row>
     <row r="275">
-      <c r="B275" s="53"/>
+      <c r="B275" s="51"/>
     </row>
     <row r="276">
-      <c r="B276" s="53"/>
+      <c r="B276" s="51"/>
     </row>
     <row r="277">
-      <c r="B277" s="53"/>
+      <c r="B277" s="51"/>
     </row>
     <row r="278">
-      <c r="B278" s="53"/>
+      <c r="B278" s="51"/>
     </row>
     <row r="279">
-      <c r="B279" s="53"/>
+      <c r="B279" s="51"/>
     </row>
     <row r="280">
-      <c r="B280" s="53"/>
+      <c r="B280" s="51"/>
     </row>
     <row r="281">
-      <c r="B281" s="53"/>
+      <c r="B281" s="51"/>
     </row>
     <row r="282">
-      <c r="B282" s="53"/>
+      <c r="B282" s="51"/>
     </row>
     <row r="283">
-      <c r="B283" s="53"/>
+      <c r="B283" s="51"/>
     </row>
     <row r="284">
-      <c r="B284" s="53"/>
+      <c r="B284" s="51"/>
     </row>
     <row r="285">
-      <c r="B285" s="53"/>
+      <c r="B285" s="51"/>
     </row>
     <row r="286">
-      <c r="B286" s="53"/>
+      <c r="B286" s="51"/>
     </row>
     <row r="287">
-      <c r="B287" s="53"/>
+      <c r="B287" s="51"/>
     </row>
     <row r="288">
-      <c r="B288" s="53"/>
+      <c r="B288" s="51"/>
     </row>
     <row r="289">
-      <c r="B289" s="53"/>
+      <c r="B289" s="51"/>
     </row>
     <row r="290">
-      <c r="B290" s="53"/>
+      <c r="B290" s="51"/>
     </row>
     <row r="291">
-      <c r="B291" s="53"/>
+      <c r="B291" s="51"/>
     </row>
     <row r="292">
-      <c r="B292" s="53"/>
+      <c r="B292" s="51"/>
     </row>
     <row r="293">
-      <c r="B293" s="53"/>
+      <c r="B293" s="51"/>
     </row>
     <row r="294">
-      <c r="B294" s="53"/>
+      <c r="B294" s="51"/>
     </row>
     <row r="295">
-      <c r="B295" s="53"/>
+      <c r="B295" s="51"/>
     </row>
     <row r="296">
-      <c r="B296" s="53"/>
+      <c r="B296" s="51"/>
     </row>
     <row r="297">
-      <c r="B297" s="53"/>
+      <c r="B297" s="51"/>
     </row>
     <row r="298">
-      <c r="B298" s="53"/>
+      <c r="B298" s="51"/>
     </row>
     <row r="299">
-      <c r="B299" s="53"/>
+      <c r="B299" s="51"/>
     </row>
     <row r="300">
-      <c r="B300" s="53"/>
+      <c r="B300" s="51"/>
     </row>
     <row r="301">
-      <c r="B301" s="53"/>
+      <c r="B301" s="51"/>
     </row>
     <row r="302">
-      <c r="B302" s="53"/>
+      <c r="B302" s="51"/>
     </row>
     <row r="303">
-      <c r="B303" s="53"/>
+      <c r="B303" s="51"/>
     </row>
     <row r="304">
-      <c r="B304" s="53"/>
+      <c r="B304" s="51"/>
     </row>
     <row r="305">
-      <c r="B305" s="53"/>
+      <c r="B305" s="51"/>
     </row>
     <row r="306">
-      <c r="B306" s="53"/>
+      <c r="B306" s="51"/>
     </row>
     <row r="307">
-      <c r="B307" s="53"/>
+      <c r="B307" s="51"/>
     </row>
     <row r="308">
-      <c r="B308" s="53"/>
+      <c r="B308" s="51"/>
     </row>
     <row r="309">
-      <c r="B309" s="53"/>
+      <c r="B309" s="51"/>
     </row>
     <row r="310">
-      <c r="B310" s="53"/>
+      <c r="B310" s="51"/>
     </row>
     <row r="311">
-      <c r="B311" s="53"/>
+      <c r="B311" s="51"/>
     </row>
     <row r="312">
-      <c r="B312" s="53"/>
+      <c r="B312" s="51"/>
     </row>
     <row r="313">
-      <c r="B313" s="53"/>
+      <c r="B313" s="51"/>
     </row>
     <row r="314">
-      <c r="B314" s="53"/>
+      <c r="B314" s="51"/>
     </row>
     <row r="315">
-      <c r="B315" s="53"/>
+      <c r="B315" s="51"/>
     </row>
     <row r="316">
-      <c r="B316" s="53"/>
+      <c r="B316" s="51"/>
     </row>
     <row r="317">
-      <c r="B317" s="53"/>
+      <c r="B317" s="51"/>
     </row>
     <row r="318">
-      <c r="B318" s="53"/>
+      <c r="B318" s="51"/>
     </row>
     <row r="319">
-      <c r="B319" s="53"/>
+      <c r="B319" s="51"/>
     </row>
     <row r="320">
-      <c r="B320" s="53"/>
+      <c r="B320" s="51"/>
     </row>
     <row r="321">
-      <c r="B321" s="53"/>
+      <c r="B321" s="51"/>
     </row>
     <row r="322">
-      <c r="B322" s="53"/>
+      <c r="B322" s="51"/>
     </row>
     <row r="323">
-      <c r="B323" s="53"/>
+      <c r="B323" s="51"/>
     </row>
     <row r="324">
-      <c r="B324" s="53"/>
+      <c r="B324" s="51"/>
     </row>
     <row r="325">
-      <c r="B325" s="53"/>
+      <c r="B325" s="51"/>
     </row>
     <row r="326">
-      <c r="B326" s="53"/>
+      <c r="B326" s="51"/>
     </row>
     <row r="327">
-      <c r="B327" s="53"/>
+      <c r="B327" s="51"/>
     </row>
     <row r="328">
-      <c r="B328" s="53"/>
+      <c r="B328" s="51"/>
     </row>
     <row r="329">
-      <c r="B329" s="53"/>
+      <c r="B329" s="51"/>
     </row>
     <row r="330">
-      <c r="B330" s="53"/>
+      <c r="B330" s="51"/>
     </row>
     <row r="331">
-      <c r="B331" s="53"/>
+      <c r="B331" s="51"/>
     </row>
     <row r="332">
-      <c r="B332" s="53"/>
+      <c r="B332" s="51"/>
     </row>
     <row r="333">
-      <c r="B333" s="53"/>
+      <c r="B333" s="51"/>
     </row>
     <row r="334">
-      <c r="B334" s="53"/>
+      <c r="B334" s="51"/>
     </row>
     <row r="335">
-      <c r="B335" s="53"/>
+      <c r="B335" s="51"/>
     </row>
     <row r="336">
-      <c r="B336" s="53"/>
+      <c r="B336" s="51"/>
     </row>
     <row r="337">
-      <c r="B337" s="53"/>
+      <c r="B337" s="51"/>
     </row>
     <row r="338">
-      <c r="B338" s="53"/>
+      <c r="B338" s="51"/>
     </row>
     <row r="339">
-      <c r="B339" s="53"/>
+      <c r="B339" s="51"/>
     </row>
     <row r="340">
-      <c r="B340" s="53"/>
+      <c r="B340" s="51"/>
     </row>
     <row r="341">
-      <c r="B341" s="53"/>
+      <c r="B341" s="51"/>
     </row>
     <row r="342">
-      <c r="B342" s="53"/>
+      <c r="B342" s="51"/>
     </row>
     <row r="343">
-      <c r="B343" s="53"/>
+      <c r="B343" s="51"/>
     </row>
     <row r="344">
-      <c r="B344" s="53"/>
+      <c r="B344" s="51"/>
     </row>
     <row r="345">
-      <c r="B345" s="53"/>
+      <c r="B345" s="51"/>
     </row>
     <row r="346">
-      <c r="B346" s="53"/>
+      <c r="B346" s="51"/>
     </row>
     <row r="347">
-      <c r="B347" s="53"/>
+      <c r="B347" s="51"/>
     </row>
     <row r="348">
-      <c r="B348" s="53"/>
+      <c r="B348" s="51"/>
     </row>
     <row r="349">
-      <c r="B349" s="53"/>
+      <c r="B349" s="51"/>
     </row>
     <row r="350">
-      <c r="B350" s="53"/>
+      <c r="B350" s="51"/>
     </row>
     <row r="351">
-      <c r="B351" s="53"/>
+      <c r="B351" s="51"/>
     </row>
     <row r="352">
-      <c r="B352" s="53"/>
+      <c r="B352" s="51"/>
     </row>
     <row r="353">
-      <c r="B353" s="53"/>
+      <c r="B353" s="51"/>
     </row>
     <row r="354">
-      <c r="B354" s="53"/>
+      <c r="B354" s="51"/>
     </row>
     <row r="355">
-      <c r="B355" s="53"/>
+      <c r="B355" s="51"/>
     </row>
     <row r="356">
-      <c r="B356" s="53"/>
+      <c r="B356" s="51"/>
     </row>
     <row r="357">
-      <c r="B357" s="53"/>
+      <c r="B357" s="51"/>
     </row>
     <row r="358">
-      <c r="B358" s="53"/>
+      <c r="B358" s="51"/>
     </row>
     <row r="359">
-      <c r="B359" s="53"/>
+      <c r="B359" s="51"/>
     </row>
     <row r="360">
-      <c r="B360" s="53"/>
+      <c r="B360" s="51"/>
     </row>
     <row r="361">
-      <c r="B361" s="53"/>
+      <c r="B361" s="51"/>
     </row>
     <row r="362">
-      <c r="B362" s="53"/>
+      <c r="B362" s="51"/>
     </row>
     <row r="363">
-      <c r="B363" s="53"/>
+      <c r="B363" s="51"/>
     </row>
     <row r="364">
-      <c r="B364" s="53"/>
+      <c r="B364" s="51"/>
     </row>
     <row r="365">
-      <c r="B365" s="53"/>
+      <c r="B365" s="51"/>
     </row>
     <row r="366">
-      <c r="B366" s="53"/>
+      <c r="B366" s="51"/>
     </row>
     <row r="367">
-      <c r="B367" s="53"/>
+      <c r="B367" s="51"/>
     </row>
     <row r="368">
-      <c r="B368" s="53"/>
+      <c r="B368" s="51"/>
     </row>
     <row r="369">
-      <c r="B369" s="53"/>
+      <c r="B369" s="51"/>
     </row>
     <row r="370">
-      <c r="B370" s="53"/>
+      <c r="B370" s="51"/>
     </row>
     <row r="371">
-      <c r="B371" s="53"/>
+      <c r="B371" s="51"/>
     </row>
     <row r="372">
-      <c r="B372" s="53"/>
+      <c r="B372" s="51"/>
     </row>
     <row r="373">
-      <c r="B373" s="53"/>
+      <c r="B373" s="51"/>
     </row>
     <row r="374">
-      <c r="B374" s="53"/>
+      <c r="B374" s="51"/>
     </row>
     <row r="375">
-      <c r="B375" s="53"/>
+      <c r="B375" s="51"/>
     </row>
     <row r="376">
-      <c r="B376" s="53"/>
+      <c r="B376" s="51"/>
     </row>
     <row r="377">
-      <c r="B377" s="53"/>
+      <c r="B377" s="51"/>
     </row>
     <row r="378">
-      <c r="B378" s="53"/>
+      <c r="B378" s="51"/>
     </row>
     <row r="379">
-      <c r="B379" s="53"/>
+      <c r="B379" s="51"/>
     </row>
     <row r="380">
-      <c r="B380" s="53"/>
+      <c r="B380" s="51"/>
     </row>
     <row r="381">
-      <c r="B381" s="53"/>
+      <c r="B381" s="51"/>
     </row>
     <row r="382">
-      <c r="B382" s="53"/>
+      <c r="B382" s="51"/>
     </row>
     <row r="383">
-      <c r="B383" s="53"/>
+      <c r="B383" s="51"/>
     </row>
     <row r="384">
-      <c r="B384" s="53"/>
+      <c r="B384" s="51"/>
     </row>
     <row r="385">
-      <c r="B385" s="53"/>
+      <c r="B385" s="51"/>
     </row>
     <row r="386">
-      <c r="B386" s="53"/>
+      <c r="B386" s="51"/>
     </row>
     <row r="387">
-      <c r="B387" s="53"/>
+      <c r="B387" s="51"/>
     </row>
     <row r="388">
-      <c r="B388" s="53"/>
+      <c r="B388" s="51"/>
     </row>
     <row r="389">
-      <c r="B389" s="53"/>
+      <c r="B389" s="51"/>
     </row>
     <row r="390">
-      <c r="B390" s="53"/>
+      <c r="B390" s="51"/>
     </row>
     <row r="391">
-      <c r="B391" s="53"/>
+      <c r="B391" s="51"/>
     </row>
     <row r="392">
-      <c r="B392" s="53"/>
+      <c r="B392" s="51"/>
     </row>
     <row r="393">
-      <c r="B393" s="53"/>
+      <c r="B393" s="51"/>
     </row>
     <row r="394">
-      <c r="B394" s="53"/>
+      <c r="B394" s="51"/>
     </row>
     <row r="395">
-      <c r="B395" s="53"/>
+      <c r="B395" s="51"/>
     </row>
     <row r="396">
-      <c r="B396" s="53"/>
+      <c r="B396" s="51"/>
     </row>
     <row r="397">
-      <c r="B397" s="53"/>
+      <c r="B397" s="51"/>
     </row>
     <row r="398">
-      <c r="B398" s="53"/>
+      <c r="B398" s="51"/>
     </row>
     <row r="399">
-      <c r="B399" s="53"/>
+      <c r="B399" s="51"/>
     </row>
     <row r="400">
-      <c r="B400" s="53"/>
+      <c r="B400" s="51"/>
     </row>
     <row r="401">
-      <c r="B401" s="53"/>
+      <c r="B401" s="51"/>
     </row>
     <row r="402">
-      <c r="B402" s="53"/>
+      <c r="B402" s="51"/>
     </row>
     <row r="403">
-      <c r="B403" s="53"/>
+      <c r="B403" s="51"/>
     </row>
     <row r="404">
-      <c r="B404" s="53"/>
+      <c r="B404" s="51"/>
     </row>
     <row r="405">
-      <c r="B405" s="53"/>
+      <c r="B405" s="51"/>
     </row>
     <row r="406">
-      <c r="B406" s="53"/>
+      <c r="B406" s="51"/>
     </row>
     <row r="407">
-      <c r="B407" s="53"/>
+      <c r="B407" s="51"/>
     </row>
     <row r="408">
-      <c r="B408" s="53"/>
+      <c r="B408" s="51"/>
     </row>
     <row r="409">
-      <c r="B409" s="53"/>
+      <c r="B409" s="51"/>
     </row>
     <row r="410">
-      <c r="B410" s="53"/>
+      <c r="B410" s="51"/>
     </row>
     <row r="411">
-      <c r="B411" s="53"/>
+      <c r="B411" s="51"/>
     </row>
     <row r="412">
-      <c r="B412" s="53"/>
+      <c r="B412" s="51"/>
     </row>
     <row r="413">
-      <c r="B413" s="53"/>
+      <c r="B413" s="51"/>
     </row>
     <row r="414">
-      <c r="B414" s="53"/>
+      <c r="B414" s="51"/>
     </row>
     <row r="415">
-      <c r="B415" s="53"/>
+      <c r="B415" s="51"/>
     </row>
     <row r="416">
-      <c r="B416" s="53"/>
+      <c r="B416" s="51"/>
     </row>
     <row r="417">
-      <c r="B417" s="53"/>
+      <c r="B417" s="51"/>
     </row>
     <row r="418">
-      <c r="B418" s="53"/>
+      <c r="B418" s="51"/>
     </row>
     <row r="419">
-      <c r="B419" s="53"/>
+      <c r="B419" s="51"/>
     </row>
     <row r="420">
-      <c r="B420" s="53"/>
+      <c r="B420" s="51"/>
     </row>
     <row r="421">
-      <c r="B421" s="53"/>
+      <c r="B421" s="51"/>
     </row>
     <row r="422">
-      <c r="B422" s="53"/>
+      <c r="B422" s="51"/>
     </row>
     <row r="423">
-      <c r="B423" s="53"/>
+      <c r="B423" s="51"/>
     </row>
     <row r="424">
-      <c r="B424" s="53"/>
+      <c r="B424" s="51"/>
     </row>
     <row r="425">
-      <c r="B425" s="53"/>
+      <c r="B425" s="51"/>
     </row>
     <row r="426">
-      <c r="B426" s="53"/>
+      <c r="B426" s="51"/>
     </row>
     <row r="427">
-      <c r="B427" s="53"/>
+      <c r="B427" s="51"/>
     </row>
     <row r="428">
-      <c r="B428" s="53"/>
+      <c r="B428" s="51"/>
     </row>
     <row r="429">
-      <c r="B429" s="53"/>
+      <c r="B429" s="51"/>
     </row>
     <row r="430">
-      <c r="B430" s="53"/>
+      <c r="B430" s="51"/>
     </row>
     <row r="431">
-      <c r="B431" s="53"/>
+      <c r="B431" s="51"/>
     </row>
     <row r="432">
-      <c r="B432" s="53"/>
+      <c r="B432" s="51"/>
     </row>
     <row r="433">
-      <c r="B433" s="53"/>
+      <c r="B433" s="51"/>
     </row>
     <row r="434">
-      <c r="B434" s="53"/>
+      <c r="B434" s="51"/>
     </row>
     <row r="435">
-      <c r="B435" s="53"/>
+      <c r="B435" s="51"/>
     </row>
     <row r="436">
-      <c r="B436" s="53"/>
+      <c r="B436" s="51"/>
     </row>
     <row r="437">
-      <c r="B437" s="53"/>
+      <c r="B437" s="51"/>
     </row>
     <row r="438">
-      <c r="B438" s="53"/>
+      <c r="B438" s="51"/>
     </row>
     <row r="439">
-      <c r="B439" s="53"/>
+      <c r="B439" s="51"/>
     </row>
     <row r="440">
-      <c r="B440" s="53"/>
+      <c r="B440" s="51"/>
     </row>
     <row r="441">
-      <c r="B441" s="53"/>
+      <c r="B441" s="51"/>
     </row>
     <row r="442">
-      <c r="B442" s="53"/>
+      <c r="B442" s="51"/>
     </row>
     <row r="443">
-      <c r="B443" s="53"/>
+      <c r="B443" s="51"/>
     </row>
     <row r="444">
-      <c r="B444" s="53"/>
+      <c r="B444" s="51"/>
     </row>
     <row r="445">
-      <c r="B445" s="53"/>
+      <c r="B445" s="51"/>
     </row>
     <row r="446">
-      <c r="B446" s="53"/>
+      <c r="B446" s="51"/>
     </row>
     <row r="447">
-      <c r="B447" s="53"/>
+      <c r="B447" s="51"/>
     </row>
     <row r="448">
-      <c r="B448" s="53"/>
+      <c r="B448" s="51"/>
     </row>
     <row r="449">
-      <c r="B449" s="53"/>
+      <c r="B449" s="51"/>
     </row>
     <row r="450">
-      <c r="B450" s="53"/>
+      <c r="B450" s="51"/>
     </row>
     <row r="451">
-      <c r="B451" s="53"/>
+      <c r="B451" s="51"/>
     </row>
     <row r="452">
-      <c r="B452" s="53"/>
+      <c r="B452" s="51"/>
     </row>
     <row r="453">
-      <c r="B453" s="53"/>
+      <c r="B453" s="51"/>
     </row>
     <row r="454">
-      <c r="B454" s="53"/>
+      <c r="B454" s="51"/>
     </row>
     <row r="455">
-      <c r="B455" s="53"/>
+      <c r="B455" s="51"/>
     </row>
     <row r="456">
-      <c r="B456" s="53"/>
+      <c r="B456" s="51"/>
     </row>
     <row r="457">
-      <c r="B457" s="53"/>
+      <c r="B457" s="51"/>
     </row>
     <row r="458">
-      <c r="B458" s="53"/>
+      <c r="B458" s="51"/>
     </row>
     <row r="459">
-      <c r="B459" s="53"/>
+      <c r="B459" s="51"/>
     </row>
     <row r="460">
-      <c r="B460" s="53"/>
+      <c r="B460" s="51"/>
     </row>
     <row r="461">
-      <c r="B461" s="53"/>
+      <c r="B461" s="51"/>
     </row>
     <row r="462">
-      <c r="B462" s="53"/>
+      <c r="B462" s="51"/>
     </row>
     <row r="463">
-      <c r="B463" s="53"/>
+      <c r="B463" s="51"/>
     </row>
     <row r="464">
-      <c r="B464" s="53"/>
+      <c r="B464" s="51"/>
     </row>
     <row r="465">
-      <c r="B465" s="53"/>
+      <c r="B465" s="51"/>
     </row>
     <row r="466">
-      <c r="B466" s="53"/>
+      <c r="B466" s="51"/>
     </row>
     <row r="467">
-      <c r="B467" s="53"/>
+      <c r="B467" s="51"/>
     </row>
     <row r="468">
-      <c r="B468" s="53"/>
+      <c r="B468" s="51"/>
     </row>
     <row r="469">
-      <c r="B469" s="53"/>
+      <c r="B469" s="51"/>
     </row>
     <row r="470">
-      <c r="B470" s="53"/>
+      <c r="B470" s="51"/>
     </row>
     <row r="471">
-      <c r="B471" s="53"/>
+      <c r="B471" s="51"/>
     </row>
     <row r="472">
-      <c r="B472" s="53"/>
+      <c r="B472" s="51"/>
     </row>
     <row r="473">
-      <c r="B473" s="53"/>
+      <c r="B473" s="51"/>
     </row>
     <row r="474">
-      <c r="B474" s="53"/>
+      <c r="B474" s="51"/>
     </row>
     <row r="475">
-      <c r="B475" s="53"/>
+      <c r="B475" s="51"/>
     </row>
     <row r="476">
-      <c r="B476" s="53"/>
+      <c r="B476" s="51"/>
     </row>
     <row r="477">
-      <c r="B477" s="53"/>
+      <c r="B477" s="51"/>
     </row>
     <row r="478">
-      <c r="B478" s="53"/>
+      <c r="B478" s="51"/>
     </row>
     <row r="479">
-      <c r="B479" s="53"/>
+      <c r="B479" s="51"/>
     </row>
     <row r="480">
-      <c r="B480" s="53"/>
+      <c r="B480" s="51"/>
     </row>
     <row r="481">
-      <c r="B481" s="53"/>
+      <c r="B481" s="51"/>
     </row>
     <row r="482">
-      <c r="B482" s="53"/>
+      <c r="B482" s="51"/>
     </row>
     <row r="483">
-      <c r="B483" s="53"/>
+      <c r="B483" s="51"/>
     </row>
     <row r="484">
-      <c r="B484" s="53"/>
+      <c r="B484" s="51"/>
     </row>
     <row r="485">
-      <c r="B485" s="53"/>
+      <c r="B485" s="51"/>
     </row>
     <row r="486">
-      <c r="B486" s="53"/>
+      <c r="B486" s="51"/>
     </row>
     <row r="487">
-      <c r="B487" s="53"/>
+      <c r="B487" s="51"/>
     </row>
     <row r="488">
-      <c r="B488" s="53"/>
+      <c r="B488" s="51"/>
     </row>
     <row r="489">
-      <c r="B489" s="53"/>
+      <c r="B489" s="51"/>
     </row>
     <row r="490">
-      <c r="B490" s="53"/>
+      <c r="B490" s="51"/>
     </row>
     <row r="491">
-      <c r="B491" s="53"/>
+      <c r="B491" s="51"/>
     </row>
     <row r="492">
-      <c r="B492" s="53"/>
+      <c r="B492" s="51"/>
     </row>
     <row r="493">
-      <c r="B493" s="53"/>
+      <c r="B493" s="51"/>
     </row>
     <row r="494">
-      <c r="B494" s="53"/>
+      <c r="B494" s="51"/>
     </row>
     <row r="495">
-      <c r="B495" s="53"/>
+      <c r="B495" s="51"/>
     </row>
     <row r="496">
-      <c r="B496" s="53"/>
+      <c r="B496" s="51"/>
     </row>
     <row r="497">
-      <c r="B497" s="53"/>
+      <c r="B497" s="51"/>
     </row>
     <row r="498">
-      <c r="B498" s="53"/>
+      <c r="B498" s="51"/>
     </row>
     <row r="499">
-      <c r="B499" s="53"/>
+      <c r="B499" s="51"/>
     </row>
     <row r="500">
-      <c r="B500" s="53"/>
+      <c r="B500" s="51"/>
     </row>
     <row r="501">
-      <c r="B501" s="53"/>
+      <c r="B501" s="51"/>
     </row>
     <row r="502">
-      <c r="B502" s="53"/>
+      <c r="B502" s="51"/>
     </row>
     <row r="503">
-      <c r="B503" s="53"/>
+      <c r="B503" s="51"/>
     </row>
     <row r="504">
-      <c r="B504" s="53"/>
+      <c r="B504" s="51"/>
     </row>
     <row r="505">
-      <c r="B505" s="53"/>
+      <c r="B505" s="51"/>
     </row>
     <row r="506">
-      <c r="B506" s="53"/>
+      <c r="B506" s="51"/>
     </row>
     <row r="507">
-      <c r="B507" s="53"/>
+      <c r="B507" s="51"/>
     </row>
     <row r="508">
-      <c r="B508" s="53"/>
+      <c r="B508" s="51"/>
     </row>
     <row r="509">
-      <c r="B509" s="53"/>
+      <c r="B509" s="51"/>
     </row>
     <row r="510">
-      <c r="B510" s="53"/>
+      <c r="B510" s="51"/>
     </row>
     <row r="511">
-      <c r="B511" s="53"/>
+      <c r="B511" s="51"/>
     </row>
     <row r="512">
-      <c r="B512" s="53"/>
+      <c r="B512" s="51"/>
     </row>
     <row r="513">
-      <c r="B513" s="53"/>
+      <c r="B513" s="51"/>
     </row>
     <row r="514">
-      <c r="B514" s="53"/>
+      <c r="B514" s="51"/>
     </row>
     <row r="515">
-      <c r="B515" s="53"/>
+      <c r="B515" s="51"/>
     </row>
     <row r="516">
-      <c r="B516" s="53"/>
+      <c r="B516" s="51"/>
     </row>
     <row r="517">
-      <c r="B517" s="53"/>
+      <c r="B517" s="51"/>
     </row>
     <row r="518">
-      <c r="B518" s="53"/>
+      <c r="B518" s="51"/>
     </row>
     <row r="519">
-      <c r="B519" s="53"/>
+      <c r="B519" s="51"/>
     </row>
     <row r="520">
-      <c r="B520" s="53"/>
+      <c r="B520" s="51"/>
     </row>
     <row r="521">
-      <c r="B521" s="53"/>
+      <c r="B521" s="51"/>
     </row>
     <row r="522">
-      <c r="B522" s="53"/>
+      <c r="B522" s="51"/>
     </row>
     <row r="523">
-      <c r="B523" s="53"/>
+      <c r="B523" s="51"/>
     </row>
     <row r="524">
-      <c r="B524" s="53"/>
+      <c r="B524" s="51"/>
     </row>
     <row r="525">
-      <c r="B525" s="53"/>
+      <c r="B525" s="51"/>
     </row>
     <row r="526">
-      <c r="B526" s="53"/>
+      <c r="B526" s="51"/>
     </row>
     <row r="527">
-      <c r="B527" s="53"/>
+      <c r="B527" s="51"/>
     </row>
     <row r="528">
-      <c r="B528" s="53"/>
+      <c r="B528" s="51"/>
     </row>
     <row r="529">
-      <c r="B529" s="53"/>
+      <c r="B529" s="51"/>
     </row>
     <row r="530">
-      <c r="B530" s="53"/>
+      <c r="B530" s="51"/>
     </row>
     <row r="531">
-      <c r="B531" s="53"/>
+      <c r="B531" s="51"/>
     </row>
     <row r="532">
-      <c r="B532" s="53"/>
+      <c r="B532" s="51"/>
     </row>
     <row r="533">
-      <c r="B533" s="53"/>
+      <c r="B533" s="51"/>
     </row>
     <row r="534">
-      <c r="B534" s="53"/>
+      <c r="B534" s="51"/>
     </row>
     <row r="535">
-      <c r="B535" s="53"/>
+      <c r="B535" s="51"/>
     </row>
     <row r="536">
-      <c r="B536" s="53"/>
+      <c r="B536" s="51"/>
     </row>
     <row r="537">
-      <c r="B537" s="53"/>
+      <c r="B537" s="51"/>
     </row>
     <row r="538">
-      <c r="B538" s="53"/>
+      <c r="B538" s="51"/>
     </row>
     <row r="539">
-      <c r="B539" s="53"/>
+      <c r="B539" s="51"/>
     </row>
     <row r="540">
-      <c r="B540" s="53"/>
+      <c r="B540" s="51"/>
     </row>
     <row r="541">
-      <c r="B541" s="53"/>
+      <c r="B541" s="51"/>
     </row>
     <row r="542">
-      <c r="B542" s="53"/>
+      <c r="B542" s="51"/>
     </row>
     <row r="543">
-      <c r="B543" s="53"/>
+      <c r="B543" s="51"/>
     </row>
     <row r="544">
-      <c r="B544" s="53"/>
+      <c r="B544" s="51"/>
     </row>
     <row r="545">
-      <c r="B545" s="53"/>
+      <c r="B545" s="51"/>
     </row>
     <row r="546">
-      <c r="B546" s="53"/>
+      <c r="B546" s="51"/>
     </row>
     <row r="547">
-      <c r="B547" s="53"/>
+      <c r="B547" s="51"/>
     </row>
     <row r="548">
-      <c r="B548" s="53"/>
+      <c r="B548" s="51"/>
     </row>
     <row r="549">
-      <c r="B549" s="53"/>
+      <c r="B549" s="51"/>
     </row>
     <row r="550">
-      <c r="B550" s="53"/>
+      <c r="B550" s="51"/>
     </row>
     <row r="551">
-      <c r="B551" s="53"/>
+      <c r="B551" s="51"/>
     </row>
     <row r="552">
-      <c r="B552" s="53"/>
+      <c r="B552" s="51"/>
     </row>
     <row r="553">
-      <c r="B553" s="53"/>
+      <c r="B553" s="51"/>
     </row>
     <row r="554">
-      <c r="B554" s="53"/>
+      <c r="B554" s="51"/>
     </row>
     <row r="555">
-      <c r="B555" s="53"/>
+      <c r="B555" s="51"/>
     </row>
     <row r="556">
-      <c r="B556" s="53"/>
+      <c r="B556" s="51"/>
     </row>
     <row r="557">
-      <c r="B557" s="53"/>
+      <c r="B557" s="51"/>
     </row>
     <row r="558">
-      <c r="B558" s="53"/>
+      <c r="B558" s="51"/>
     </row>
     <row r="559">
-      <c r="B559" s="53"/>
+      <c r="B559" s="51"/>
     </row>
     <row r="560">
-      <c r="B560" s="53"/>
+      <c r="B560" s="51"/>
     </row>
     <row r="561">
-      <c r="B561" s="53"/>
+      <c r="B561" s="51"/>
     </row>
     <row r="562">
-      <c r="B562" s="53"/>
+      <c r="B562" s="51"/>
     </row>
     <row r="563">
-      <c r="B563" s="53"/>
+      <c r="B563" s="51"/>
     </row>
     <row r="564">
-      <c r="B564" s="53"/>
+      <c r="B564" s="51"/>
     </row>
     <row r="565">
-      <c r="B565" s="53"/>
+      <c r="B565" s="51"/>
     </row>
     <row r="566">
-      <c r="B566" s="53"/>
+      <c r="B566" s="51"/>
     </row>
     <row r="567">
-      <c r="B567" s="53"/>
+      <c r="B567" s="51"/>
     </row>
     <row r="568">
-      <c r="B568" s="53"/>
+      <c r="B568" s="51"/>
     </row>
     <row r="569">
-      <c r="B569" s="53"/>
+      <c r="B569" s="51"/>
     </row>
     <row r="570">
-      <c r="B570" s="53"/>
+      <c r="B570" s="51"/>
     </row>
     <row r="571">
-      <c r="B571" s="53"/>
+      <c r="B571" s="51"/>
     </row>
     <row r="572">
-      <c r="B572" s="53"/>
+      <c r="B572" s="51"/>
     </row>
     <row r="573">
-      <c r="B573" s="53"/>
+      <c r="B573" s="51"/>
     </row>
     <row r="574">
-      <c r="B574" s="53"/>
+      <c r="B574" s="51"/>
     </row>
     <row r="575">
-      <c r="B575" s="53"/>
+      <c r="B575" s="51"/>
     </row>
     <row r="576">
-      <c r="B576" s="53"/>
+      <c r="B576" s="51"/>
     </row>
     <row r="577">
-      <c r="B577" s="53"/>
+      <c r="B577" s="51"/>
     </row>
     <row r="578">
-      <c r="B578" s="53"/>
+      <c r="B578" s="51"/>
     </row>
     <row r="579">
-      <c r="B579" s="53"/>
+      <c r="B579" s="51"/>
     </row>
     <row r="580">
-      <c r="B580" s="53"/>
+      <c r="B580" s="51"/>
     </row>
     <row r="581">
-      <c r="B581" s="53"/>
+      <c r="B581" s="51"/>
     </row>
     <row r="582">
-      <c r="B582" s="53"/>
+      <c r="B582" s="51"/>
     </row>
     <row r="583">
-      <c r="B583" s="53"/>
+      <c r="B583" s="51"/>
     </row>
     <row r="584">
-      <c r="B584" s="53"/>
+      <c r="B584" s="51"/>
     </row>
     <row r="585">
-      <c r="B585" s="53"/>
+      <c r="B585" s="51"/>
     </row>
     <row r="586">
-      <c r="B586" s="53"/>
+      <c r="B586" s="51"/>
     </row>
     <row r="587">
-      <c r="B587" s="53"/>
+      <c r="B587" s="51"/>
     </row>
     <row r="588">
-      <c r="B588" s="53"/>
+      <c r="B588" s="51"/>
     </row>
     <row r="589">
-      <c r="B589" s="53"/>
+      <c r="B589" s="51"/>
     </row>
     <row r="590">
-      <c r="B590" s="53"/>
+      <c r="B590" s="51"/>
     </row>
     <row r="591">
-      <c r="B591" s="53"/>
+      <c r="B591" s="51"/>
     </row>
     <row r="592">
-      <c r="B592" s="53"/>
+      <c r="B592" s="51"/>
     </row>
     <row r="593">
-      <c r="B593" s="53"/>
+      <c r="B593" s="51"/>
     </row>
     <row r="594">
-      <c r="B594" s="53"/>
+      <c r="B594" s="51"/>
     </row>
     <row r="595">
-      <c r="B595" s="53"/>
+      <c r="B595" s="51"/>
     </row>
     <row r="596">
-      <c r="B596" s="53"/>
+      <c r="B596" s="51"/>
     </row>
     <row r="597">
-      <c r="B597" s="53"/>
+      <c r="B597" s="51"/>
     </row>
     <row r="598">
-      <c r="B598" s="53"/>
+      <c r="B598" s="51"/>
     </row>
     <row r="599">
-      <c r="B599" s="53"/>
+      <c r="B599" s="51"/>
     </row>
     <row r="600">
-      <c r="B600" s="53"/>
+      <c r="B600" s="51"/>
     </row>
     <row r="601">
-      <c r="B601" s="53"/>
+      <c r="B601" s="51"/>
     </row>
     <row r="602">
-      <c r="B602" s="53"/>
+      <c r="B602" s="51"/>
     </row>
     <row r="603">
-      <c r="B603" s="53"/>
+      <c r="B603" s="51"/>
     </row>
     <row r="604">
-      <c r="B604" s="53"/>
+      <c r="B604" s="51"/>
     </row>
     <row r="605">
-      <c r="B605" s="53"/>
+      <c r="B605" s="51"/>
     </row>
     <row r="606">
-      <c r="B606" s="53"/>
+      <c r="B606" s="51"/>
     </row>
     <row r="607">
-      <c r="B607" s="53"/>
+      <c r="B607" s="51"/>
     </row>
     <row r="608">
-      <c r="B608" s="53"/>
+      <c r="B608" s="51"/>
     </row>
     <row r="609">
-      <c r="B609" s="53"/>
+      <c r="B609" s="51"/>
     </row>
     <row r="610">
-      <c r="B610" s="53"/>
+      <c r="B610" s="51"/>
     </row>
     <row r="611">
-      <c r="B611" s="53"/>
+      <c r="B611" s="51"/>
     </row>
     <row r="612">
-      <c r="B612" s="53"/>
+      <c r="B612" s="51"/>
     </row>
     <row r="613">
-      <c r="B613" s="53"/>
+      <c r="B613" s="51"/>
     </row>
     <row r="614">
-      <c r="B614" s="53"/>
+      <c r="B614" s="51"/>
     </row>
     <row r="615">
-      <c r="B615" s="53"/>
+      <c r="B615" s="51"/>
     </row>
     <row r="616">
-      <c r="B616" s="53"/>
+      <c r="B616" s="51"/>
     </row>
     <row r="617">
-      <c r="B617" s="53"/>
+      <c r="B617" s="51"/>
     </row>
     <row r="618">
-      <c r="B618" s="53"/>
+      <c r="B618" s="51"/>
     </row>
     <row r="619">
-      <c r="B619" s="53"/>
+      <c r="B619" s="51"/>
     </row>
     <row r="620">
-      <c r="B620" s="53"/>
+      <c r="B620" s="51"/>
     </row>
     <row r="621">
-      <c r="B621" s="53"/>
+      <c r="B621" s="51"/>
     </row>
     <row r="622">
-      <c r="B622" s="53"/>
+      <c r="B622" s="51"/>
     </row>
     <row r="623">
-      <c r="B623" s="53"/>
+      <c r="B623" s="51"/>
     </row>
     <row r="624">
-      <c r="B624" s="53"/>
+      <c r="B624" s="51"/>
     </row>
     <row r="625">
-      <c r="B625" s="53"/>
+      <c r="B625" s="51"/>
     </row>
     <row r="626">
-      <c r="B626" s="53"/>
+      <c r="B626" s="51"/>
     </row>
     <row r="627">
-      <c r="B627" s="53"/>
+      <c r="B627" s="51"/>
     </row>
     <row r="628">
-      <c r="B628" s="53"/>
+      <c r="B628" s="51"/>
     </row>
     <row r="629">
-      <c r="B629" s="53"/>
+      <c r="B629" s="51"/>
     </row>
     <row r="630">
-      <c r="B630" s="53"/>
+      <c r="B630" s="51"/>
     </row>
     <row r="631">
-      <c r="B631" s="53"/>
+      <c r="B631" s="51"/>
     </row>
     <row r="632">
-      <c r="B632" s="53"/>
+      <c r="B632" s="51"/>
     </row>
     <row r="633">
-      <c r="B633" s="53"/>
+      <c r="B633" s="51"/>
     </row>
     <row r="634">
-      <c r="B634" s="53"/>
+      <c r="B634" s="51"/>
     </row>
     <row r="635">
-      <c r="B635" s="53"/>
+      <c r="B635" s="51"/>
     </row>
     <row r="636">
-      <c r="B636" s="53"/>
+      <c r="B636" s="51"/>
     </row>
     <row r="637">
-      <c r="B637" s="53"/>
+      <c r="B637" s="51"/>
     </row>
     <row r="638">
-      <c r="B638" s="53"/>
+      <c r="B638" s="51"/>
     </row>
     <row r="639">
-      <c r="B639" s="53"/>
+      <c r="B639" s="51"/>
     </row>
     <row r="640">
-      <c r="B640" s="53"/>
+      <c r="B640" s="51"/>
     </row>
     <row r="641">
-      <c r="B641" s="53"/>
+      <c r="B641" s="51"/>
     </row>
     <row r="642">
-      <c r="B642" s="53"/>
+      <c r="B642" s="51"/>
     </row>
     <row r="643">
-      <c r="B643" s="53"/>
+      <c r="B643" s="51"/>
     </row>
     <row r="644">
-      <c r="B644" s="53"/>
+      <c r="B644" s="51"/>
     </row>
     <row r="645">
-      <c r="B645" s="53"/>
+      <c r="B645" s="51"/>
     </row>
     <row r="646">
-      <c r="B646" s="53"/>
+      <c r="B646" s="51"/>
     </row>
     <row r="647">
-      <c r="B647" s="53"/>
+      <c r="B647" s="51"/>
     </row>
     <row r="648">
-      <c r="B648" s="53"/>
+      <c r="B648" s="51"/>
     </row>
     <row r="649">
-      <c r="B649" s="53"/>
+      <c r="B649" s="51"/>
     </row>
     <row r="650">
-      <c r="B650" s="53"/>
+      <c r="B650" s="51"/>
     </row>
     <row r="651">
-      <c r="B651" s="53"/>
+      <c r="B651" s="51"/>
     </row>
     <row r="652">
-      <c r="B652" s="53"/>
+      <c r="B652" s="51"/>
     </row>
     <row r="653">
-      <c r="B653" s="53"/>
+      <c r="B653" s="51"/>
     </row>
     <row r="654">
-      <c r="B654" s="53"/>
+      <c r="B654" s="51"/>
     </row>
     <row r="655">
-      <c r="B655" s="53"/>
+      <c r="B655" s="51"/>
     </row>
     <row r="656">
-      <c r="B656" s="53"/>
+      <c r="B656" s="51"/>
     </row>
     <row r="657">
-      <c r="B657" s="53"/>
+      <c r="B657" s="51"/>
     </row>
     <row r="658">
-      <c r="B658" s="53"/>
+      <c r="B658" s="51"/>
     </row>
     <row r="659">
-      <c r="B659" s="53"/>
+      <c r="B659" s="51"/>
     </row>
     <row r="660">
-      <c r="B660" s="53"/>
+      <c r="B660" s="51"/>
     </row>
     <row r="661">
-      <c r="B661" s="53"/>
+      <c r="B661" s="51"/>
     </row>
     <row r="662">
-      <c r="B662" s="53"/>
+      <c r="B662" s="51"/>
     </row>
     <row r="663">
-      <c r="B663" s="53"/>
+      <c r="B663" s="51"/>
     </row>
     <row r="664">
-      <c r="B664" s="53"/>
+      <c r="B664" s="51"/>
     </row>
     <row r="665">
-      <c r="B665" s="53"/>
+      <c r="B665" s="51"/>
     </row>
     <row r="666">
-      <c r="B666" s="53"/>
+      <c r="B666" s="51"/>
     </row>
     <row r="667">
-      <c r="B667" s="53"/>
+      <c r="B667" s="51"/>
     </row>
     <row r="668">
-      <c r="B668" s="53"/>
+      <c r="B668" s="51"/>
     </row>
     <row r="669">
-      <c r="B669" s="53"/>
+      <c r="B669" s="51"/>
     </row>
     <row r="670">
-      <c r="B670" s="53"/>
+      <c r="B670" s="51"/>
     </row>
     <row r="671">
-      <c r="B671" s="53"/>
+      <c r="B671" s="51"/>
     </row>
     <row r="672">
-      <c r="B672" s="53"/>
+      <c r="B672" s="51"/>
     </row>
     <row r="673">
-      <c r="B673" s="53"/>
+      <c r="B673" s="51"/>
     </row>
     <row r="674">
-      <c r="B674" s="53"/>
+      <c r="B674" s="51"/>
     </row>
     <row r="675">
-      <c r="B675" s="53"/>
+      <c r="B675" s="51"/>
     </row>
     <row r="676">
-      <c r="B676" s="53"/>
+      <c r="B676" s="51"/>
     </row>
     <row r="677">
-      <c r="B677" s="53"/>
+      <c r="B677" s="51"/>
     </row>
     <row r="678">
-      <c r="B678" s="53"/>
+      <c r="B678" s="51"/>
     </row>
     <row r="679">
-      <c r="B679" s="53"/>
+      <c r="B679" s="51"/>
     </row>
     <row r="680">
-      <c r="B680" s="53"/>
+      <c r="B680" s="51"/>
     </row>
     <row r="681">
-      <c r="B681" s="53"/>
+      <c r="B681" s="51"/>
     </row>
     <row r="682">
-      <c r="B682" s="53"/>
+      <c r="B682" s="51"/>
     </row>
     <row r="683">
-      <c r="B683" s="53"/>
+      <c r="B683" s="51"/>
     </row>
     <row r="684">
-      <c r="B684" s="53"/>
+      <c r="B684" s="51"/>
     </row>
     <row r="685">
-      <c r="B685" s="53"/>
+      <c r="B685" s="51"/>
     </row>
     <row r="686">
-      <c r="B686" s="53"/>
+      <c r="B686" s="51"/>
     </row>
     <row r="687">
-      <c r="B687" s="53"/>
+      <c r="B687" s="51"/>
     </row>
     <row r="688">
-      <c r="B688" s="53"/>
+      <c r="B688" s="51"/>
     </row>
     <row r="689">
-      <c r="B689" s="53"/>
+      <c r="B689" s="51"/>
     </row>
     <row r="690">
-      <c r="B690" s="53"/>
+      <c r="B690" s="51"/>
     </row>
     <row r="691">
-      <c r="B691" s="53"/>
+      <c r="B691" s="51"/>
     </row>
     <row r="692">
-      <c r="B692" s="53"/>
+      <c r="B692" s="51"/>
     </row>
     <row r="693">
-      <c r="B693" s="53"/>
+      <c r="B693" s="51"/>
     </row>
     <row r="694">
-      <c r="B694" s="53"/>
+      <c r="B694" s="51"/>
     </row>
     <row r="695">
-      <c r="B695" s="53"/>
+      <c r="B695" s="51"/>
     </row>
     <row r="696">
-      <c r="B696" s="53"/>
+      <c r="B696" s="51"/>
     </row>
     <row r="697">
-      <c r="B697" s="53"/>
+      <c r="B697" s="51"/>
     </row>
     <row r="698">
-      <c r="B698" s="53"/>
+      <c r="B698" s="51"/>
     </row>
     <row r="699">
-      <c r="B699" s="53"/>
+      <c r="B699" s="51"/>
     </row>
     <row r="700">
-      <c r="B700" s="53"/>
+      <c r="B700" s="51"/>
     </row>
     <row r="701">
-      <c r="B701" s="53"/>
+      <c r="B701" s="51"/>
     </row>
     <row r="702">
-      <c r="B702" s="53"/>
+      <c r="B702" s="51"/>
     </row>
     <row r="703">
-      <c r="B703" s="53"/>
+      <c r="B703" s="51"/>
     </row>
     <row r="704">
-      <c r="B704" s="53"/>
+      <c r="B704" s="51"/>
     </row>
     <row r="705">
-      <c r="B705" s="53"/>
+      <c r="B705" s="51"/>
     </row>
     <row r="706">
-      <c r="B706" s="53"/>
+      <c r="B706" s="51"/>
     </row>
     <row r="707">
-      <c r="B707" s="53"/>
+      <c r="B707" s="51"/>
     </row>
     <row r="708">
-      <c r="B708" s="53"/>
+      <c r="B708" s="51"/>
     </row>
     <row r="709">
-      <c r="B709" s="53"/>
+      <c r="B709" s="51"/>
     </row>
     <row r="710">
-      <c r="B710" s="53"/>
+      <c r="B710" s="51"/>
     </row>
     <row r="711">
-      <c r="B711" s="53"/>
+      <c r="B711" s="51"/>
     </row>
     <row r="712">
-      <c r="B712" s="53"/>
+      <c r="B712" s="51"/>
     </row>
     <row r="713">
-      <c r="B713" s="53"/>
+      <c r="B713" s="51"/>
     </row>
     <row r="714">
-      <c r="B714" s="53"/>
+      <c r="B714" s="51"/>
     </row>
     <row r="715">
-      <c r="B715" s="53"/>
+      <c r="B715" s="51"/>
     </row>
     <row r="716">
-      <c r="B716" s="53"/>
+      <c r="B716" s="51"/>
     </row>
     <row r="717">
-      <c r="B717" s="53"/>
+      <c r="B717" s="51"/>
     </row>
     <row r="718">
-      <c r="B718" s="53"/>
+      <c r="B718" s="51"/>
     </row>
     <row r="719">
-      <c r="B719" s="53"/>
+      <c r="B719" s="51"/>
     </row>
     <row r="720">
-      <c r="B720" s="53"/>
+      <c r="B720" s="51"/>
     </row>
     <row r="721">
-      <c r="B721" s="53"/>
+      <c r="B721" s="51"/>
     </row>
     <row r="722">
-      <c r="B722" s="53"/>
+      <c r="B722" s="51"/>
     </row>
     <row r="723">
-      <c r="B723" s="53"/>
+      <c r="B723" s="51"/>
     </row>
     <row r="724">
-      <c r="B724" s="53"/>
+      <c r="B724" s="51"/>
     </row>
     <row r="725">
-      <c r="B725" s="53"/>
+      <c r="B725" s="51"/>
     </row>
     <row r="726">
-      <c r="B726" s="53"/>
+      <c r="B726" s="51"/>
     </row>
     <row r="727">
-      <c r="B727" s="53"/>
+      <c r="B727" s="51"/>
     </row>
     <row r="728">
-      <c r="B728" s="53"/>
+      <c r="B728" s="51"/>
     </row>
     <row r="729">
-      <c r="B729" s="53"/>
+      <c r="B729" s="51"/>
     </row>
     <row r="730">
-      <c r="B730" s="53"/>
+      <c r="B730" s="51"/>
     </row>
     <row r="731">
-      <c r="B731" s="53"/>
+      <c r="B731" s="51"/>
     </row>
     <row r="732">
-      <c r="B732" s="53"/>
+      <c r="B732" s="51"/>
     </row>
     <row r="733">
-      <c r="B733" s="53"/>
+      <c r="B733" s="51"/>
     </row>
     <row r="734">
-      <c r="B734" s="53"/>
+      <c r="B734" s="51"/>
     </row>
     <row r="735">
-      <c r="B735" s="53"/>
+      <c r="B735" s="51"/>
     </row>
     <row r="736">
-      <c r="B736" s="53"/>
+      <c r="B736" s="51"/>
     </row>
     <row r="737">
-      <c r="B737" s="53"/>
+      <c r="B737" s="51"/>
     </row>
     <row r="738">
-      <c r="B738" s="53"/>
+      <c r="B738" s="51"/>
     </row>
     <row r="739">
-      <c r="B739" s="53"/>
+      <c r="B739" s="51"/>
     </row>
     <row r="740">
-      <c r="B740" s="53"/>
+      <c r="B740" s="51"/>
     </row>
     <row r="741">
-      <c r="B741" s="53"/>
+      <c r="B741" s="51"/>
     </row>
     <row r="742">
-      <c r="B742" s="53"/>
+      <c r="B742" s="51"/>
     </row>
     <row r="743">
-      <c r="B743" s="53"/>
+      <c r="B743" s="51"/>
     </row>
     <row r="744">
-      <c r="B744" s="53"/>
+      <c r="B744" s="51"/>
     </row>
     <row r="745">
-      <c r="B745" s="53"/>
+      <c r="B745" s="51"/>
     </row>
     <row r="746">
-      <c r="B746" s="53"/>
+      <c r="B746" s="51"/>
     </row>
     <row r="747">
-      <c r="B747" s="53"/>
+      <c r="B747" s="51"/>
     </row>
     <row r="748">
-      <c r="B748" s="53"/>
+      <c r="B748" s="51"/>
     </row>
     <row r="749">
-      <c r="B749" s="53"/>
+      <c r="B749" s="51"/>
     </row>
     <row r="750">
-      <c r="B750" s="53"/>
+      <c r="B750" s="51"/>
     </row>
     <row r="751">
-      <c r="B751" s="53"/>
+      <c r="B751" s="51"/>
     </row>
     <row r="752">
-      <c r="B752" s="53"/>
+      <c r="B752" s="51"/>
     </row>
     <row r="753">
-      <c r="B753" s="53"/>
+      <c r="B753" s="51"/>
     </row>
     <row r="754">
-      <c r="B754" s="53"/>
+      <c r="B754" s="51"/>
     </row>
     <row r="755">
-      <c r="B755" s="53"/>
+      <c r="B755" s="51"/>
     </row>
     <row r="756">
-      <c r="B756" s="53"/>
+      <c r="B756" s="51"/>
     </row>
     <row r="757">
-      <c r="B757" s="53"/>
+      <c r="B757" s="51"/>
     </row>
     <row r="758">
-      <c r="B758" s="53"/>
+      <c r="B758" s="51"/>
     </row>
     <row r="759">
-      <c r="B759" s="53"/>
+      <c r="B759" s="51"/>
     </row>
     <row r="760">
-      <c r="B760" s="53"/>
+      <c r="B760" s="51"/>
     </row>
     <row r="761">
-      <c r="B761" s="53"/>
+      <c r="B761" s="51"/>
     </row>
     <row r="762">
-      <c r="B762" s="53"/>
+      <c r="B762" s="51"/>
     </row>
     <row r="763">
-      <c r="B763" s="53"/>
+      <c r="B763" s="51"/>
     </row>
     <row r="764">
-      <c r="B764" s="53"/>
+      <c r="B764" s="51"/>
     </row>
     <row r="765">
-      <c r="B765" s="53"/>
+      <c r="B765" s="51"/>
     </row>
     <row r="766">
-      <c r="B766" s="53"/>
+      <c r="B766" s="51"/>
     </row>
     <row r="767">
-      <c r="B767" s="53"/>
+      <c r="B767" s="51"/>
     </row>
     <row r="768">
-      <c r="B768" s="53"/>
+      <c r="B768" s="51"/>
     </row>
     <row r="769">
-      <c r="B769" s="53"/>
+      <c r="B769" s="51"/>
     </row>
     <row r="770">
-      <c r="B770" s="53"/>
+      <c r="B770" s="51"/>
     </row>
     <row r="771">
-      <c r="B771" s="53"/>
+      <c r="B771" s="51"/>
     </row>
     <row r="772">
-      <c r="B772" s="53"/>
+      <c r="B772" s="51"/>
     </row>
     <row r="773">
-      <c r="B773" s="53"/>
+      <c r="B773" s="51"/>
     </row>
     <row r="774">
-      <c r="B774" s="53"/>
+      <c r="B774" s="51"/>
     </row>
     <row r="775">
-      <c r="B775" s="53"/>
+      <c r="B775" s="51"/>
     </row>
     <row r="776">
-      <c r="B776" s="53"/>
+      <c r="B776" s="51"/>
     </row>
     <row r="777">
-      <c r="B777" s="53"/>
+      <c r="B777" s="51"/>
     </row>
     <row r="778">
-      <c r="B778" s="53"/>
+      <c r="B778" s="51"/>
     </row>
     <row r="779">
-      <c r="B779" s="53"/>
+      <c r="B779" s="51"/>
     </row>
     <row r="780">
-      <c r="B780" s="53"/>
+      <c r="B780" s="51"/>
     </row>
     <row r="781">
-      <c r="B781" s="53"/>
+      <c r="B781" s="51"/>
     </row>
     <row r="782">
-      <c r="B782" s="53"/>
+      <c r="B782" s="51"/>
     </row>
     <row r="783">
-      <c r="B783" s="53"/>
+      <c r="B783" s="51"/>
     </row>
     <row r="784">
-      <c r="B784" s="53"/>
+      <c r="B784" s="51"/>
     </row>
     <row r="785">
-      <c r="B785" s="53"/>
+      <c r="B785" s="51"/>
     </row>
     <row r="786">
-      <c r="B786" s="53"/>
+      <c r="B786" s="51"/>
     </row>
     <row r="787">
-      <c r="B787" s="53"/>
+      <c r="B787" s="51"/>
     </row>
     <row r="788">
-      <c r="B788" s="53"/>
+      <c r="B788" s="51"/>
     </row>
     <row r="789">
-      <c r="B789" s="53"/>
+      <c r="B789" s="51"/>
     </row>
     <row r="790">
-      <c r="B790" s="53"/>
+      <c r="B790" s="51"/>
     </row>
     <row r="791">
-      <c r="B791" s="53"/>
+      <c r="B791" s="51"/>
     </row>
     <row r="792">
-      <c r="B792" s="53"/>
+      <c r="B792" s="51"/>
     </row>
     <row r="793">
-      <c r="B793" s="53"/>
+      <c r="B793" s="51"/>
     </row>
     <row r="794">
-      <c r="B794" s="53"/>
+      <c r="B794" s="51"/>
     </row>
     <row r="795">
-      <c r="B795" s="53"/>
+      <c r="B795" s="51"/>
     </row>
     <row r="796">
-      <c r="B796" s="53"/>
+      <c r="B796" s="51"/>
     </row>
     <row r="797">
-      <c r="B797" s="53"/>
+      <c r="B797" s="51"/>
     </row>
     <row r="798">
-      <c r="B798" s="53"/>
+      <c r="B798" s="51"/>
     </row>
     <row r="799">
-      <c r="B799" s="53"/>
+      <c r="B799" s="51"/>
     </row>
     <row r="800">
-      <c r="B800" s="53"/>
+      <c r="B800" s="51"/>
     </row>
     <row r="801">
-      <c r="B801" s="53"/>
+      <c r="B801" s="51"/>
     </row>
     <row r="802">
-      <c r="B802" s="53"/>
+      <c r="B802" s="51"/>
     </row>
     <row r="803">
-      <c r="B803" s="53"/>
+      <c r="B803" s="51"/>
     </row>
     <row r="804">
-      <c r="B804" s="53"/>
+      <c r="B804" s="51"/>
     </row>
     <row r="805">
-      <c r="B805" s="53"/>
+      <c r="B805" s="51"/>
     </row>
     <row r="806">
-      <c r="B806" s="53"/>
+      <c r="B806" s="51"/>
     </row>
     <row r="807">
-      <c r="B807" s="53"/>
+      <c r="B807" s="51"/>
     </row>
     <row r="808">
-      <c r="B808" s="53"/>
+      <c r="B808" s="51"/>
     </row>
     <row r="809">
-      <c r="B809" s="53"/>
+      <c r="B809" s="51"/>
     </row>
     <row r="810">
-      <c r="B810" s="53"/>
+      <c r="B810" s="51"/>
     </row>
     <row r="811">
-      <c r="B811" s="53"/>
+      <c r="B811" s="51"/>
     </row>
     <row r="812">
-      <c r="B812" s="53"/>
+      <c r="B812" s="51"/>
     </row>
     <row r="813">
-      <c r="B813" s="53"/>
+      <c r="B813" s="51"/>
     </row>
     <row r="814">
-      <c r="B814" s="53"/>
+      <c r="B814" s="51"/>
     </row>
     <row r="815">
-      <c r="B815" s="53"/>
+      <c r="B815" s="51"/>
     </row>
     <row r="816">
-      <c r="B816" s="53"/>
+      <c r="B816" s="51"/>
     </row>
     <row r="817">
-      <c r="B817" s="53"/>
+      <c r="B817" s="51"/>
     </row>
     <row r="818">
-      <c r="B818" s="53"/>
+      <c r="B818" s="51"/>
     </row>
     <row r="819">
-      <c r="B819" s="53"/>
+      <c r="B819" s="51"/>
     </row>
     <row r="820">
-      <c r="B820" s="53"/>
+      <c r="B820" s="51"/>
     </row>
     <row r="821">
-      <c r="B821" s="53"/>
+      <c r="B821" s="51"/>
     </row>
     <row r="822">
-      <c r="B822" s="53"/>
+      <c r="B822" s="51"/>
     </row>
     <row r="823">
-      <c r="B823" s="53"/>
+      <c r="B823" s="51"/>
     </row>
     <row r="824">
-      <c r="B824" s="53"/>
+      <c r="B824" s="51"/>
     </row>
     <row r="825">
-      <c r="B825" s="53"/>
+      <c r="B825" s="51"/>
     </row>
     <row r="826">
-      <c r="B826" s="53"/>
+      <c r="B826" s="51"/>
     </row>
     <row r="827">
-      <c r="B827" s="53"/>
+      <c r="B827" s="51"/>
     </row>
     <row r="828">
-      <c r="B828" s="53"/>
+      <c r="B828" s="51"/>
     </row>
     <row r="829">
-      <c r="B829" s="53"/>
+      <c r="B829" s="51"/>
     </row>
     <row r="830">
-      <c r="B830" s="53"/>
+      <c r="B830" s="51"/>
     </row>
     <row r="831">
-      <c r="B831" s="53"/>
+      <c r="B831" s="51"/>
     </row>
     <row r="832">
-      <c r="B832" s="53"/>
+      <c r="B832" s="51"/>
     </row>
     <row r="833">
-      <c r="B833" s="53"/>
+      <c r="B833" s="51"/>
     </row>
     <row r="834">
-      <c r="B834" s="53"/>
+      <c r="B834" s="51"/>
     </row>
     <row r="835">
-      <c r="B835" s="53"/>
+      <c r="B835" s="51"/>
     </row>
     <row r="836">
-      <c r="B836" s="53"/>
+      <c r="B836" s="51"/>
     </row>
     <row r="837">
-      <c r="B837" s="53"/>
+      <c r="B837" s="51"/>
     </row>
     <row r="838">
-      <c r="B838" s="53"/>
+      <c r="B838" s="51"/>
     </row>
     <row r="839">
-      <c r="B839" s="53"/>
+      <c r="B839" s="51"/>
     </row>
     <row r="840">
-      <c r="B840" s="53"/>
+      <c r="B840" s="51"/>
     </row>
     <row r="841">
-      <c r="B841" s="53"/>
+      <c r="B841" s="51"/>
     </row>
     <row r="842">
-      <c r="B842" s="53"/>
+      <c r="B842" s="51"/>
     </row>
     <row r="843">
-      <c r="B843" s="53"/>
+      <c r="B843" s="51"/>
     </row>
     <row r="844">
-      <c r="B844" s="53"/>
+      <c r="B844" s="51"/>
     </row>
     <row r="845">
-      <c r="B845" s="53"/>
+      <c r="B845" s="51"/>
     </row>
     <row r="846">
-      <c r="B846" s="53"/>
+      <c r="B846" s="51"/>
     </row>
     <row r="847">
-      <c r="B847" s="53"/>
+      <c r="B847" s="51"/>
     </row>
     <row r="848">
-      <c r="B848" s="53"/>
+      <c r="B848" s="51"/>
     </row>
     <row r="849">
-      <c r="B849" s="53"/>
+      <c r="B849" s="51"/>
     </row>
     <row r="850">
-      <c r="B850" s="53"/>
+      <c r="B850" s="51"/>
     </row>
     <row r="851">
-      <c r="B851" s="53"/>
+      <c r="B851" s="51"/>
     </row>
     <row r="852">
-      <c r="B852" s="53"/>
+      <c r="B852" s="51"/>
     </row>
     <row r="853">
-      <c r="B853" s="53"/>
+      <c r="B853" s="51"/>
     </row>
     <row r="854">
-      <c r="B854" s="53"/>
+      <c r="B854" s="51"/>
     </row>
     <row r="855">
-      <c r="B855" s="53"/>
+      <c r="B855" s="51"/>
     </row>
     <row r="856">
-      <c r="B856" s="53"/>
+      <c r="B856" s="51"/>
     </row>
     <row r="857">
-      <c r="B857" s="53"/>
+      <c r="B857" s="51"/>
     </row>
     <row r="858">
-      <c r="B858" s="53"/>
+      <c r="B858" s="51"/>
     </row>
     <row r="859">
-      <c r="B859" s="53"/>
+      <c r="B859" s="51"/>
     </row>
     <row r="860">
-      <c r="B860" s="53"/>
+      <c r="B860" s="51"/>
     </row>
     <row r="861">
-      <c r="B861" s="53"/>
+      <c r="B861" s="51"/>
     </row>
     <row r="862">
-      <c r="B862" s="53"/>
+      <c r="B862" s="51"/>
     </row>
     <row r="863">
-      <c r="B863" s="53"/>
+      <c r="B863" s="51"/>
     </row>
     <row r="864">
-      <c r="B864" s="53"/>
+      <c r="B864" s="51"/>
     </row>
     <row r="865">
-      <c r="B865" s="53"/>
+      <c r="B865" s="51"/>
     </row>
     <row r="866">
-      <c r="B866" s="53"/>
+      <c r="B866" s="51"/>
     </row>
     <row r="867">
-      <c r="B867" s="53"/>
+      <c r="B867" s="51"/>
     </row>
     <row r="868">
-      <c r="B868" s="53"/>
+      <c r="B868" s="51"/>
     </row>
     <row r="869">
-      <c r="B869" s="53"/>
+      <c r="B869" s="51"/>
     </row>
     <row r="870">
-      <c r="B870" s="53"/>
+      <c r="B870" s="51"/>
     </row>
     <row r="871">
-      <c r="B871" s="53"/>
+      <c r="B871" s="51"/>
     </row>
     <row r="872">
-      <c r="B872" s="53"/>
+      <c r="B872" s="51"/>
     </row>
     <row r="873">
-      <c r="B873" s="53"/>
+      <c r="B873" s="51"/>
     </row>
     <row r="874">
-      <c r="B874" s="53"/>
+      <c r="B874" s="51"/>
     </row>
     <row r="875">
-      <c r="B875" s="53"/>
+      <c r="B875" s="51"/>
     </row>
     <row r="876">
-      <c r="B876" s="53"/>
+      <c r="B876" s="51"/>
     </row>
     <row r="877">
-      <c r="B877" s="53"/>
+      <c r="B877" s="51"/>
     </row>
     <row r="878">
-      <c r="B878" s="53"/>
+      <c r="B878" s="51"/>
     </row>
     <row r="879">
-      <c r="B879" s="53"/>
+      <c r="B879" s="51"/>
     </row>
     <row r="880">
-      <c r="B880" s="53"/>
+      <c r="B880" s="51"/>
     </row>
     <row r="881">
-      <c r="B881" s="53"/>
+      <c r="B881" s="51"/>
     </row>
     <row r="882">
-      <c r="B882" s="53"/>
+      <c r="B882" s="51"/>
     </row>
     <row r="883">
-      <c r="B883" s="53"/>
+      <c r="B883" s="51"/>
     </row>
     <row r="884">
-      <c r="B884" s="53"/>
+      <c r="B884" s="51"/>
     </row>
     <row r="885">
-      <c r="B885" s="53"/>
+      <c r="B885" s="51"/>
     </row>
     <row r="886">
-      <c r="B886" s="53"/>
+      <c r="B886" s="51"/>
     </row>
     <row r="887">
-      <c r="B887" s="53"/>
+      <c r="B887" s="51"/>
     </row>
     <row r="888">
-      <c r="B888" s="53"/>
+      <c r="B888" s="51"/>
     </row>
     <row r="889">
-      <c r="B889" s="53"/>
+      <c r="B889" s="51"/>
     </row>
     <row r="890">
-      <c r="B890" s="53"/>
+      <c r="B890" s="51"/>
     </row>
     <row r="891">
-      <c r="B891" s="53"/>
+      <c r="B891" s="51"/>
     </row>
     <row r="892">
-      <c r="B892" s="53"/>
+      <c r="B892" s="51"/>
     </row>
     <row r="893">
-      <c r="B893" s="53"/>
+      <c r="B893" s="51"/>
     </row>
     <row r="894">
-      <c r="B894" s="53"/>
+      <c r="B894" s="51"/>
     </row>
     <row r="895">
-      <c r="B895" s="53"/>
+      <c r="B895" s="51"/>
     </row>
     <row r="896">
-      <c r="B896" s="53"/>
+      <c r="B896" s="51"/>
     </row>
     <row r="897">
-      <c r="B897" s="53"/>
+      <c r="B897" s="51"/>
     </row>
     <row r="898">
-      <c r="B898" s="53"/>
+      <c r="B898" s="51"/>
     </row>
     <row r="899">
-      <c r="B899" s="53"/>
+      <c r="B899" s="51"/>
     </row>
     <row r="900">
-      <c r="B900" s="53"/>
+      <c r="B900" s="51"/>
     </row>
     <row r="901">
-      <c r="B901" s="53"/>
+      <c r="B901" s="51"/>
     </row>
     <row r="902">
-      <c r="B902" s="53"/>
+      <c r="B902" s="51"/>
     </row>
     <row r="903">
-      <c r="B903" s="53"/>
+      <c r="B903" s="51"/>
     </row>
     <row r="904">
-      <c r="B904" s="53"/>
+      <c r="B904" s="51"/>
     </row>
     <row r="905">
-      <c r="B905" s="53"/>
+      <c r="B905" s="51"/>
     </row>
     <row r="906">
-      <c r="B906" s="53"/>
+      <c r="B906" s="51"/>
     </row>
     <row r="907">
-      <c r="B907" s="53"/>
+      <c r="B907" s="51"/>
     </row>
     <row r="908">
-      <c r="B908" s="53"/>
+      <c r="B908" s="51"/>
     </row>
     <row r="909">
-      <c r="B909" s="53"/>
+      <c r="B909" s="51"/>
     </row>
     <row r="910">
-      <c r="B910" s="53"/>
+      <c r="B910" s="51"/>
     </row>
     <row r="911">
-      <c r="B911" s="53"/>
+      <c r="B911" s="51"/>
     </row>
     <row r="912">
-      <c r="B912" s="53"/>
+      <c r="B912" s="51"/>
     </row>
     <row r="913">
-      <c r="B913" s="53"/>
+      <c r="B913" s="51"/>
     </row>
     <row r="914">
-      <c r="B914" s="53"/>
+      <c r="B914" s="51"/>
     </row>
     <row r="915">
-      <c r="B915" s="53"/>
+      <c r="B915" s="51"/>
     </row>
     <row r="916">
-      <c r="B916" s="53"/>
+      <c r="B916" s="51"/>
     </row>
     <row r="917">
-      <c r="B917" s="53"/>
+      <c r="B917" s="51"/>
     </row>
     <row r="918">
-      <c r="B918" s="53"/>
+      <c r="B918" s="51"/>
     </row>
     <row r="919">
-      <c r="B919" s="53"/>
+      <c r="B919" s="51"/>
     </row>
     <row r="920">
-      <c r="B920" s="53"/>
+      <c r="B920" s="51"/>
     </row>
     <row r="921">
-      <c r="B921" s="53"/>
+      <c r="B921" s="51"/>
     </row>
     <row r="922">
-      <c r="B922" s="53"/>
+      <c r="B922" s="51"/>
     </row>
     <row r="923">
-      <c r="B923" s="53"/>
+      <c r="B923" s="51"/>
     </row>
     <row r="924">
-      <c r="B924" s="53"/>
+      <c r="B924" s="51"/>
     </row>
     <row r="925">
-      <c r="B925" s="53"/>
+      <c r="B925" s="51"/>
     </row>
     <row r="926">
-      <c r="B926" s="53"/>
+      <c r="B926" s="51"/>
     </row>
     <row r="927">
-      <c r="B927" s="53"/>
+      <c r="B927" s="51"/>
     </row>
     <row r="928">
-      <c r="B928" s="53"/>
+      <c r="B928" s="51"/>
     </row>
     <row r="929">
-      <c r="B929" s="53"/>
+      <c r="B929" s="51"/>
     </row>
     <row r="930">
-      <c r="B930" s="53"/>
+      <c r="B930" s="51"/>
     </row>
     <row r="931">
-      <c r="B931" s="53"/>
+      <c r="B931" s="51"/>
     </row>
     <row r="932">
-      <c r="B932" s="53"/>
+      <c r="B932" s="51"/>
     </row>
     <row r="933">
-      <c r="B933" s="53"/>
+      <c r="B933" s="51"/>
     </row>
     <row r="934">
-      <c r="B934" s="53"/>
+      <c r="B934" s="51"/>
     </row>
     <row r="935">
-      <c r="B935" s="53"/>
+      <c r="B935" s="51"/>
     </row>
     <row r="936">
-      <c r="B936" s="53"/>
+      <c r="B936" s="51"/>
     </row>
     <row r="937">
-      <c r="B937" s="53"/>
+      <c r="B937" s="51"/>
     </row>
     <row r="938">
-      <c r="B938" s="53"/>
+      <c r="B938" s="51"/>
     </row>
     <row r="939">
-      <c r="B939" s="53"/>
+      <c r="B939" s="51"/>
     </row>
     <row r="940">
-      <c r="B940" s="53"/>
+      <c r="B940" s="51"/>
     </row>
     <row r="941">
-      <c r="B941" s="53"/>
+      <c r="B941" s="51"/>
     </row>
     <row r="942">
-      <c r="B942" s="53"/>
+      <c r="B942" s="51"/>
     </row>
     <row r="943">
-      <c r="B943" s="53"/>
+      <c r="B943" s="51"/>
     </row>
     <row r="944">
-      <c r="B944" s="53"/>
+      <c r="B944" s="51"/>
     </row>
     <row r="945">
-      <c r="B945" s="53"/>
+      <c r="B945" s="51"/>
     </row>
     <row r="946">
-      <c r="B946" s="53"/>
+      <c r="B946" s="51"/>
     </row>
     <row r="947">
-      <c r="B947" s="53"/>
+      <c r="B947" s="51"/>
     </row>
     <row r="948">
-      <c r="B948" s="53"/>
+      <c r="B948" s="51"/>
     </row>
     <row r="949">
-      <c r="B949" s="53"/>
+      <c r="B949" s="51"/>
     </row>
     <row r="950">
-      <c r="B950" s="53"/>
+      <c r="B950" s="51"/>
     </row>
     <row r="951">
-      <c r="B951" s="53"/>
+      <c r="B951" s="51"/>
     </row>
     <row r="952">
-      <c r="B952" s="53"/>
+      <c r="B952" s="51"/>
     </row>
     <row r="953">
-      <c r="B953" s="53"/>
+      <c r="B953" s="51"/>
     </row>
     <row r="954">
-      <c r="B954" s="53"/>
+      <c r="B954" s="51"/>
     </row>
     <row r="955">
-      <c r="B955" s="53"/>
+      <c r="B955" s="51"/>
     </row>
     <row r="956">
-      <c r="B956" s="53"/>
+      <c r="B956" s="51"/>
     </row>
     <row r="957">
-      <c r="B957" s="53"/>
+      <c r="B957" s="51"/>
     </row>
     <row r="958">
-      <c r="B958" s="53"/>
+      <c r="B958" s="51"/>
     </row>
     <row r="959">
-      <c r="B959" s="53"/>
+      <c r="B959" s="51"/>
     </row>
     <row r="960">
-      <c r="B960" s="53"/>
+      <c r="B960" s="51"/>
     </row>
     <row r="961">
-      <c r="B961" s="53"/>
+      <c r="B961" s="51"/>
     </row>
     <row r="962">
-      <c r="B962" s="53"/>
+      <c r="B962" s="51"/>
     </row>
     <row r="963">
-      <c r="B963" s="53"/>
+      <c r="B963" s="51"/>
     </row>
     <row r="964">
-      <c r="B964" s="53"/>
+      <c r="B964" s="51"/>
     </row>
     <row r="965">
-      <c r="B965" s="53"/>
+      <c r="B965" s="51"/>
     </row>
     <row r="966">
-      <c r="B966" s="53"/>
+      <c r="B966" s="51"/>
     </row>
     <row r="967">
-      <c r="B967" s="53"/>
+      <c r="B967" s="51"/>
     </row>
     <row r="968">
-      <c r="B968" s="53"/>
+      <c r="B968" s="51"/>
     </row>
     <row r="969">
-      <c r="B969" s="53"/>
+      <c r="B969" s="51"/>
     </row>
     <row r="970">
-      <c r="B970" s="53"/>
+      <c r="B970" s="51"/>
     </row>
     <row r="971">
-      <c r="B971" s="53"/>
+      <c r="B971" s="51"/>
     </row>
     <row r="972">
-      <c r="B972" s="53"/>
+      <c r="B972" s="51"/>
     </row>
     <row r="973">
-      <c r="B973" s="53"/>
+      <c r="B973" s="51"/>
     </row>
     <row r="974">
-      <c r="B974" s="53"/>
+      <c r="B974" s="51"/>
     </row>
     <row r="975">
-      <c r="B975" s="53"/>
+      <c r="B975" s="51"/>
     </row>
     <row r="976">
-      <c r="B976" s="53"/>
+      <c r="B976" s="51"/>
     </row>
     <row r="977">
-      <c r="B977" s="53"/>
+      <c r="B977" s="51"/>
     </row>
     <row r="978">
-      <c r="B978" s="53"/>
+      <c r="B978" s="51"/>
     </row>
     <row r="979">
-      <c r="B979" s="53"/>
+      <c r="B979" s="51"/>
     </row>
     <row r="980">
-      <c r="B980" s="53"/>
+      <c r="B980" s="51"/>
     </row>
     <row r="981">
-      <c r="B981" s="53"/>
+      <c r="B981" s="51"/>
     </row>
     <row r="982">
-      <c r="B982" s="53"/>
+      <c r="B982" s="51"/>
     </row>
     <row r="983">
-      <c r="B983" s="53"/>
+      <c r="B983" s="51"/>
     </row>
     <row r="984">
-      <c r="B984" s="53"/>
+      <c r="B984" s="51"/>
     </row>
     <row r="985">
-      <c r="B985" s="53"/>
+      <c r="B985" s="51"/>
     </row>
     <row r="986">
-      <c r="B986" s="53"/>
+      <c r="B986" s="51"/>
     </row>
     <row r="987">
-      <c r="B987" s="53"/>
+      <c r="B987" s="51"/>
     </row>
     <row r="988">
-      <c r="B988" s="53"/>
+      <c r="B988" s="51"/>
     </row>
     <row r="989">
-      <c r="B989" s="53"/>
+      <c r="B989" s="51"/>
     </row>
     <row r="990">
-      <c r="B990" s="53"/>
+      <c r="B990" s="51"/>
     </row>
     <row r="991">
-      <c r="B991" s="53"/>
+      <c r="B991" s="51"/>
     </row>
     <row r="992">
-      <c r="B992" s="53"/>
+      <c r="B992" s="51"/>
     </row>
     <row r="993">
-      <c r="B993" s="53"/>
+      <c r="B993" s="51"/>
     </row>
     <row r="994">
-      <c r="B994" s="53"/>
+      <c r="B994" s="51"/>
     </row>
     <row r="995">
-      <c r="B995" s="53"/>
+      <c r="B995" s="51"/>
     </row>
     <row r="996">
-      <c r="B996" s="53"/>
+      <c r="B996" s="51"/>
     </row>
     <row r="997">
-      <c r="B997" s="53"/>
+      <c r="B997" s="51"/>
     </row>
     <row r="998">
-      <c r="B998" s="53"/>
+      <c r="B998" s="51"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Data/Textbausteine_LENA_Juni2023.xlsx
+++ b/Data/Textbausteine_LENA_Juni2023.xlsx
@@ -1637,9 +1637,6 @@
     <t>Les habitants de #Gemeinde_f ont rejeté le texte, contrairement canton.</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix un crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg. Le crédit doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
   </si>
   <si>
@@ -1869,6 +1866,9 @@
   </si>
   <si>
     <t>Ost- und Westumfahrung Flecken Beromünster</t>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
   <si>
     <t>Neues Naturhistorisches Museum</t>
@@ -14609,7 +14609,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -14684,7 +14684,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
@@ -14702,7 +14702,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -14714,7 +14714,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -14851,7 +14851,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -14956,7 +14956,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4">
@@ -15135,7 +15135,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9">
@@ -15186,7 +15186,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -15234,7 +15234,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -15246,7 +15246,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>125</v>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>130</v>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>135</v>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>140</v>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
@@ -18233,7 +18233,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -18308,7 +18308,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -18344,7 +18344,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4">
@@ -24645,7 +24645,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5">
@@ -24654,7 +24654,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -24678,7 +24678,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -24708,7 +24708,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -24720,7 +24720,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -24732,7 +24732,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -24744,7 +24744,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -32405,80 +32405,80 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>595</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B2" s="22">
         <v>242824.0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B3" s="22">
         <v>243141.0</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>600</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" s="22">
         <v>243142.0</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>602</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B5" s="4">
         <v>243209.0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="B6" s="4">
         <v>243008.0</v>

--- a/Data/Textbausteine_LENA_Juni2023.xlsx
+++ b/Data/Textbausteine_LENA_Juni2023.xlsx
@@ -85,7 +85,7 @@
     <t>Die Umsetzung der OECD-Mindeststeuer ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
   </si>
   <si>
-    <t>La réforme de l'imposition minimale de l'OCDE  est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+    <t>La réforme de l'imposition minimale de l'OCDE est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i si sono espressi a favore dell'imposizione minima OCSE/G20. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
@@ -103,7 +103,7 @@
     <t>#Gemeinde_d hat die Umsetzung der OECD-Mindeststeuer angenommen. Die Gemeinde stimmte der Vorlage mit Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent zu.</t>
   </si>
   <si>
-    <t>La réforme de l'imposition minimale de l'OCDE  passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
+    <t>La réforme de l'imposition minimale de l'OCDE passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
   </si>
   <si>
     <t>Da #Gemeinde_i è arrivato un "sì" alle urne per l'imposizione minima OCSE/G20. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
@@ -124,7 +124,7 @@
     <t>#Gemeinde_d hat die Umsetzung der OECD-Mindeststeuer mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen angenommen.</t>
   </si>
   <si>
-    <t>La modification de la réforme de l'imposition minimale de l'OCDE  est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+    <t>La modification de la réforme de l'imposition minimale de l'OCDE est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i l'imposizione minima OCSE/G20 è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
@@ -136,7 +136,7 @@
     <t>Ja zur Umsetzung der OECD-Mindeststeuer in #Gemeinde_d. Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen ist Vorlage angenommen worden.</t>
   </si>
   <si>
-    <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la réforme de l'imposition minimale de l'OCDE . Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+    <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la réforme de l'imposition minimale de l'OCDE. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno approvato l'imposizione minima OCSE/G20.</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">#Gemeinde_d ist gegen die Umsetzung der OECD-Mindeststeuer: Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
   </si>
   <si>
-    <t xml:space="preserve">La réforme de l'imposition minimale de l'OCDE  est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f. </t>
+    <t xml:space="preserve">La réforme de l'imposition minimale de l'OCDE est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f. </t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i l'imposizione minima OCSE/G20 è stata bocciata con il #NeinStimmenInProzent percento dei voti.</t>
@@ -160,7 +160,7 @@
     <t>#NeinStimmenInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Umsetzung der OECD-Mindeststeuer abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f s'opposent à la modification de la réforme de l'imposition minimale de l'OCDE  par #NeinStimmenInProzent pour cent des voix.</t>
+    <t>Les habitants de #Gemeinde_f s'opposent à la modification de la réforme de l'imposition minimale de l'OCDE par #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
     <t>No all'imposizione minima OCSE/G20 nel comune di #Gemeinde_i: i cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
@@ -169,7 +169,7 @@
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich gegen die Umsetzung der OECD-Mindeststeuer ausgesprochen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la réforme de l'imposition minimale de l'OCDE .</t>
+    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la réforme de l'imposition minimale de l'OCDE.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i l'imposizione minima OCSE/G20 è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
@@ -178,7 +178,7 @@
     <t>Mit #NeinStimmenAbsolut Nein zu #JaStimmenAbsolut Ja haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d die Umsetzung der OECD-Mindeststeuer abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la réforme de l'imposition minimale de l'OCDE .</t>
+    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la réforme de l'imposition minimale de l'OCDE.</t>
   </si>
   <si>
     <t>I cittadini di #Gemeinde_i si sono opposti all'imposizione minima OCSE/G20. Il testo è stato respinto con il #NeinStimmenInProzent percento dei voti.</t>
@@ -187,7 +187,7 @@
     <t>In #Gemeinde_d ist die Umsetzung der OECD-Mindeststeuer mit #NeinStimmenInProzent Prozent gescheitert.</t>
   </si>
   <si>
-    <t>La réforme de l'imposition minimale de l'OCDE  n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>La réforme de l'imposition minimale de l'OCDE n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno bocciato l'imposizione minima OCSE/G20.</t>
@@ -196,7 +196,7 @@
     <t>#Gemeinde_d hat die Umsetzung der OECD-Mindeststeuer mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
   </si>
   <si>
-    <t>La modification de la réforme de l'imposition minimale de l'OCDE  n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>La modification de la réforme de l'imposition minimale de l'OCDE n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Da #Gemeinde_i è arrivato un "no" alle urne per l'imposizione minima OCSE/G20. I cittadini hanno respinto il testo con il #NeinStimmenInProzent percento dei voti.</t>
@@ -205,7 +205,7 @@
     <t>In #Gemeinde_d hat die Umsetzung der OECD-Mindeststeuer keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>C'est non à la réforme de l'imposition minimale de l'OCDE  à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>C'est non à la réforme de l'imposition minimale de l'OCDE à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>A #Gemeinde_i i cittadini hanno respinto, con il #NeinStimmenInProzent percento dei voti, l'imposizione minima OCSE/G20.</t>
@@ -217,7 +217,7 @@
     <t>#Gemeinde_d hat die Umsetzung der OECD-Mindeststeuer mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen verworfen.</t>
   </si>
   <si>
-    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la révision de la réforme de l'imposition minimale de l'OCDE . Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
+    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la révision de la réforme de l'imposition minimale de l'OCDE. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i l'imposizione minima OCSE/G20 è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut.</t>
@@ -226,7 +226,7 @@
     <t>#Gemeinde_d hat die Umsetzung der OECD-Mindeststeuer mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen abgelehnt.</t>
   </si>
   <si>
-    <t>La réforme de l'imposition minimale de l'OCDE  ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+    <t>La réforme de l'imposition minimale de l'OCDE ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto l'imposizione minima OCSE/G20.</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei der Abstimmung über die Umsetzung der OECD-Mindeststeuer ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la réforme de l'imposition minimale de l'OCDE  et #NeinStimmenAbsolut à la refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la réforme de l'imposition minimale de l'OCDE et #NeinStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t>Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore dell'imposizione minima OCSE/G20, lo stesso identico numero dei contrari.</t>
@@ -253,7 +253,7 @@
     <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden haben ein Ja zur OECD-Mindeststeuer in die Urne gelegt.</t>
   </si>
   <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la réforme de l'imposition minimale de l'OCDE .</t>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la réforme de l'imposition minimale de l'OCDE.</t>
   </si>
   <si>
     <t>Un risultato più chiaro è difficile da trovare: a #Gemeinde_i tutti e #JaStimmenAbsolut i votanti hanno accettato l'imposizione minima OCSE/G20.</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden ein Nein zur Umsetzung der OECD-Mindeststeuer in die Urne gelegt. </t>
   </si>
   <si>
-    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la révision de la réforme de l'imposition minimale de l'OCDE .</t>
+    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la révision de la réforme de l'imposition minimale de l'OCDE.</t>
   </si>
   <si>
     <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto l'imposizione minima OCSE/G20.</t>
@@ -283,7 +283,7 @@
     <t>Mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent hat #Gemeinde_d bei dieser Vorlage schweizweit den höchsten Ja-Anteil erreicht.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la réforme de l'imposition minimale de l'OCDE  est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la réforme de l'imposition minimale de l'OCDE est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>In nessun’altra parte della Svizzera l'imposizione minima OCSE/G20 è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
@@ -298,7 +298,7 @@
     <t>#Gemeinde_d hat die Vorlage schweizweit mit dem zweithöchsten Ja-Anteil zugestimmt: #JaStimmenInProzent Prozent haben sich für die Vorlage ausgesprochen.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la réforme de l'imposition minimale de l'OCDE . Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la réforme de l'imposition minimale de l'OCDE. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli all'imposizione minima OCSE/G20. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
@@ -313,7 +313,7 @@
     <t>#Gemeinde_d hat die Vorlage mit dem schweizweit dritthöchsten Ja-Anteil angenommen: #JaStimmenInProzent Prozent haben der Vorlage zugestimmt..</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la réforme de l'imposition minimale de l'OCDE . Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la réforme de l'imposition minimale de l'OCDE. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli al'imposizione minima OCSE/G20. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
@@ -343,7 +343,7 @@
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Nein-Anteil bei dieser Abstimmung: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la réforme de l'imposition minimale de l'OCDE . Elle dit non à #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_i se place au 2e rang des principaux opposants à l'imposition minimale de l'OCDE. Ses citoyens ont dit "non" avec #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori all'imposizione minima OCSE/G20. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
@@ -358,7 +358,7 @@
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Nein-Anteil bei dieser Abstimmung: #NeinStimmenInProzent Prozent haben die Vorlage verworfen.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la réforme de l'imposition minimale de l'OCDE . Le rejet atteint #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la réforme de l'imposition minimale de l'OCDE. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori all'imposizione minima OCSE/G20. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
@@ -722,7 +722,7 @@
     <t>Im Vergleich zur Abstimmung über das CO2Gesetz vor rund zwei Jahren hat die Zustimmung zu einer umweltpolitischen Vorlage in #Gemeinde_d abgenommen. Damals betrug der Ja-Stimmen-Anteil noch #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Le soutien à la protection du climat est toutefois moins appuyé lors de la votation du 13 juin 2021 sur la loi CO2. Les habitants de #Gemeinde_f avaient alors dit oui à #HistJaStimmenInProzent pour cent.</t>
+    <t>Le soutien à la protection du climat est toutefois moins appuyé que lors de la votation du 13 juin 2021 sur la loi CO2. Les habitants de #Gemeinde_f avaient alors dit oui à #HistJaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">Il sostegno alla protezione del clima è diminuito a #Gemeinde_i dalla votazione sulla legge CO2 del 13 giugno 2021, quando era stato del #HistJaStimmenInProzent percento. </t>
@@ -768,7 +768,7 @@
     <t>Damit hat in #Gemeinde_d die Ablehnung im Vergleich zur letzten umweltpolitischen Abstimmung über das CO2-Gesetz vom 13. Juni 2021 noch einmal zugenommen. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Le refus de la loi  climat est plus fort que celui de la loi sur le CO2 le 13 juin 2021. La proportion de "non" à #Gemeinde_f était alors de #HistNeinStimmenInProzent pour cent.</t>
+    <t>Le refus de la loi sur le climat est plus fort que celui de la loi sur le CO2 le 13 juin 2021. La proportion de "non" à #Gemeinde_f était alors de #HistNeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">Il rifiuto della legge sul clima è maggiore a #Gemeinde_i rispetto alla votazione sulla legge CO2 del 13 giugno 2021, quando era stato del #HistJaStimmenInProzent percento. </t>
@@ -784,7 +784,7 @@
     <t>Damit sind in #Gemeinde_d im Vergleich zur letzten umweltpolitischen Abstimmung über das CO2-Gesetz vom 13. Juni 2021  weniger Stimmberechtigte gegen ein Verbot von Tabakwerbung. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Le rejet de la loi est toutefois moins fort que celui de la loi sur le CO2 le 13 juin 2021, les habitants de #Gemeinde_f avaient dit non à #HistNeinStimmenInProzent pour cent.</t>
+    <t>Le rejet de la loi est toutefois moins fort que celui de la loi sur le CO2 le 13 juin 2021. Les habitants de #Gemeinde_f avaient alors dit non à #HistNeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">Il rifiuto della legge sul clima è meno marcato a #Gemeinde_i rispetto alla votazione sulla legge CO2 del 13 giugno 2021, quando era stato del #HistNeinStimmenInProzent percento. </t>
@@ -846,7 +846,7 @@
     <t>Damit hat #Gemeinde_d seine Einstellung im Vergleich zur letzten umweltpolitischen Abstimmung vor rund zwei Jahren über das CO2-Gesetz geändert: Damals hatte noch eine Mehrheit von #HistJaStimmenInProzent Prozent ein Ja in die Urne gelegt.</t>
   </si>
   <si>
-    <t>En deux ans, la commune a ainsi changé de camp en matière de protection du climat. #Gemeinde_f avait approuvé la loi sur le CO2 à #HistNeinStimmenInProzent pour cent lors des votations du 13 juin 2021.</t>
+    <t>En deux ans, la commune a ainsi changé de camp en matière de protection du climat. #Gemeinde_f avait approuvé la loi sur le CO2 à #HistNeinStimmenInProzent pour cent lors de la votation du 13 juin 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">Con questo risultato, #Gemeinde_i ha cambiato opinione sulla tematica: nel 2021 aveva approvato la legge sul CO2 con il #HistJaStimmenInProzent percento. </t>
@@ -892,7 +892,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben für die Änderung des Covid-19-Gesetzes gestimmt.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la nouvelle modification de la loi Covid-19.</t>
+    <t>A #Gemeinde_f, les citoyens disent oui à  #JaStimmenInProzent pour cent à la nouvelle modification de la loi Covid-19.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata approvata con il #JaStimmenInProzent percento dei voti.</t>
@@ -910,7 +910,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Ja gesagt zur Änderung des Covid-19-Gesetzes.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la nouvelle modification de la loi Covid-19.</t>
+    <t>Les citoyens de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la nouvelle modification de la loi Covid-19.</t>
   </si>
   <si>
     <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto la legge COVID-19.</t>
@@ -1099,7 +1099,7 @@
     <t>#Gemeinde_d hat #Gemeinde_d hat die Änderung des Covid-19-Gesetzes mit dem schweizweit zweithöchsten Nein-Anteil abgelehnt, nämlich mit #NeinStimmenInProzent Nein.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la nouvelle modification de la loi Covid-19. Elle dit non à #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la nouvelle modification de la loi Covid-19. Cette commune dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge COVID-19. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
@@ -1198,7 +1198,7 @@
     <t xml:space="preserve">Bei der letzten Covid-19-Abstimmung im November 2021 hatte #Gemeinde_d ebenfalls Nein gesagt, bei der ersten im Juni 2021 hingegen Ja. </t>
   </si>
   <si>
-    <t>#Gemeinde_f a seulement voté oui à la première loi sur le Covid. Les deux modifications ont mordu la poussière.</t>
+    <t>#Gemeinde_f a seulement voté oui à la première loi sur le Covid. Les deux autres modifications ont mordu la poussière.</t>
   </si>
   <si>
     <t xml:space="preserve">A #Gemeinde_i le legge Covid era stata approvata in un'occasione nelle votazioni passare. </t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Den beiden letzten Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte die Gemeinde noch zugestimmt. </t>
   </si>
   <si>
-    <t>#Gemeinde_f a refusé la première votation sur la loi Covid. Elle a ensuite accepté les deux modifications proposées.</t>
+    <t>#Gemeinde_f a refusé la première votation sur la loi Covid. Cette commune a ensuite accepté les deux modifications proposées.</t>
   </si>
   <si>
     <t xml:space="preserve">A #Gemeinde_i le legge Covid era stata approvata in due occasioni nelle votazioni passare. </t>
@@ -1243,7 +1243,7 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung über das Covid-Gesetz im Juni in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
-    <t>Impossible de comparer les résultats des différentes votations sur la loi Covid. La commune a très certainement fusionné entre deux scrutins.</t>
+    <t xml:space="preserve">Impossible de comparer les résultats des différentes votations sur la loi Covid. Et ce en raison de changements dans la structure de la commune.  </t>
   </si>
   <si>
     <t xml:space="preserve">Impossibile comparare il risultato odierno di #Gemeinde_i con quelli passati. Questo a causa di cambiamenti nella struttura comunale. </t>
@@ -1252,67 +1252,67 @@
     <t>#Gemeinde_d hat die Initiative für eine 24-wöchige bezahlte Elternzeit mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'introduction d'un congé parental. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'introduction d'un congé parental de 24 semaines. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für die Initiative für eine 24-wöchige bezahlte Elternzeit ausgesprochen. </t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f approuvent avec #JaStimmenInProzent pour cent de oui l'introduction d'un congé parental. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Les habitants de #Gemeinde_f approuvent avec #JaStimmenInProzent pour cent de oui l'introduction d'un congé parental de 24 semaines. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Initiative für eine 24-wöchige bezahlte Elternzeit  zugestimmt.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à l'introduction d'un congé parental. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à l'introduction d'un congé parental de 24 semaines. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Die Initiative für eine 24-wöchige bezahlte Elternzeit ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
   </si>
   <si>
-    <t>L'introduction d'un congé parental passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>L'introduction d'un congé parental de 24 semaines passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Initiative für eine 24-wöchige bezahlte Elternzeit mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f rejettent l'introduction d'un congé parental avec #NeinStimmenInProzent pour cent de non. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Les habitants de #Gemeinde_f rejettent l'introduction d'un congé parental de 24 semaines avec #NeinStimmenInProzent pour cent de non. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Nein zur Initiative für eine 24-wöchige bezahlte Elternzeit in #Gemeinde_d: #NeinStimmenInProzent Prozent haben das Begehren abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f s'opposent à l'introduction d'un congé parental avec #NeinStimmenInProzent pour cent de non. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Les habitants de #Gemeinde_f s'opposent à l'introduction d'un congé parental de 24 semaines avec #NeinStimmenInProzent pour cent de non. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Keine Mehrheit für die Initiative für eine 24-wöchige bezahlte Elternzeit in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à l'introduction d'un congé parental. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à l'introduction d'un congé parental de 24 semaines. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Die Initiative für eine 24-wöchige bezahlte Elternzeit ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
-    <t>L'introduction d'un congé parental ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>L'introduction d'un congé parental de 24 semaines ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Initiative für eine 24-wöchige bezahlte Elternzeit: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver l'introduction d'un congé parental et #JaStimmenAbsolut à le refuser. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver l'introduction d'un congé parental de 24 semaines et #JaStimmenAbsolut à le refuser. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Initiative für eine 24-wöchige bezahlte Elternzeit zugestimmt.</t>
   </si>
   <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous l'introduction d'un congé parental. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous l'introduction d'un congé parental de 24 semaines. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Initiative für eine 24-wöchige bezahlte Elternzeit abgelehnt.</t>
   </si>
   <si>
-    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'introduction d'un congé parental. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
+    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'introduction d'un congé parental de 24 semaines. L'initiative lancée par le Parti socialiste prévoit que chaque parent dispose d'un droit individuel de 6 semaines, les parents se répartissant librement les 12 semaines restantes.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
@@ -1339,7 +1339,7 @@
     <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont rejeté le texte, comme son canton.</t>
+    <t>Les habitants de #Gemeinde_f ont rejeté le texte, comme le canton.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Verfassungsänderung für Anpassungen bei den Schuldenbremsen mit #JaStimmenInProzent Prozent angenommen.</t>
@@ -1381,7 +1381,7 @@
     <t>Keine Mehrheit für die Anpassungen bei den Schuldenbremsen in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à une modification du frein à l'endettement. La nouvelle disposition doit permettre au canton d'attribuer au financement des investissements des excédents dégagés au cours des années précédentes</t>
+    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à une modification du frein à l'endettement. La nouvelle disposition doit permettre au canton d'attribuer au financement des investissements des excédents dégagés au cours des années précédentes.</t>
   </si>
   <si>
     <t>Die Verfassungsänderung für Anpassungen bei den Schuldenbremsen ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
@@ -1634,9 +1634,6 @@
     <t>Le rejet le plus net de la modification a été enregistré à #Gemeinde_f.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont rejeté le texte, contrairement canton.</t>
-  </si>
-  <si>
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix un crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg. Le crédit doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
   </si>
   <si>
@@ -1679,7 +1676,7 @@
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix d'inscrire la protection du climat et de la biodiversité dans la Constitution cantonale. Le texte demande que l'Etat et les communes réduisent significativement les impacts climatiques négatifs de chacune de leurs politiques, afin d'atteindre la neutralité carbone d'ici à 2050.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'inscription la protection du climat et de la biodiversité dans la Constitution cantonale. Le texte demande que l'Etat et les communes réduisent significativement les impacts climatiques négatifs de chacune de leurs politiques, afin d'atteindre la neutralité carbone d'ici à 2050.</t>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'inscription de la protection du climat et de la biodiversité dans la Constitution cantonale. Le texte demande que l'Etat et les communes réduisent significativement les impacts climatiques négatifs de chacune de leurs politiques, afin d'atteindre la neutralité carbone d'ici à 2050.</t>
   </si>
   <si>
     <t>C'est oui à #JaStimmenInProzent pour cent à l'inscription de la protection du climat et de la biodiversité dans la Constitution cantonale à #Gemeinde_f. Le texte demande que l'Etat et les communes réduisent significativement les impacts climatiques négatifs de chacune de leurs politiques, afin d'atteindre la neutralité carbone d'ici à 2050.</t>
@@ -1724,7 +1721,7 @@
     <t>C'est oui à #JaStimmenInProzent pour cent à un congé parental de 24 semaines à #Gemeinde_f. Le texte demande de compléter les seize semaines de congé maternité cantonal par huit semaines en faveur de l'autre parent, y compris les deux semaines de congé paternité fédéral en vigueur depuis 2021.</t>
   </si>
   <si>
-    <t>Le congé parental de 24 semaines passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette initiative, qui demande à compléter les seize semaines de congé maternité cantonal par huit semaines en faveur de l'autre parent, y compris les deux semaines de congé paternité fédéral en vigueur depuis 2021.</t>
+    <t>Le congé parental de 24 semaines passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette initiative, qui demande de compléter les seize semaines de congé maternité cantonal par huit semaines en faveur de l'autre parent, y compris les deux semaines de congé paternité fédéral en vigueur depuis 2021.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix un congé parental de 24 semaines. Le texte demande de compléter les seize semaines de congé maternité cantonal par huit semaines en faveur de l'autre parent, y compris les deux semaines de congé paternité fédéral en vigueur depuis 2021.</t>
@@ -1748,10 +1745,13 @@
     <t>L'introduction d'un congé parental a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce texte, qui demande de compléter les seize semaines de congé maternité cantonal par huit semaines en faveur de l'autre parent, y compris les deux semaines de congé paternité fédéral en vigueur depuis 2021.</t>
   </si>
   <si>
+    <t>C'est à #Gemeinde_f que le texte a été le plus fortement approuvé.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f ont approuvé l'initiative des Vert'libéraux, tout comme le canton.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont rejeté l'initiative des Vert'libéraux, contrairement canton.</t>
+    <t>Les habitants de #Gemeinde_f ont rejeté l'initiative des Vert'libéraux, contrairement au canton.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont approuvé l'initiative des Vert'libéraux, contrairement au canton.</t>
@@ -1760,37 +1760,37 @@
     <t>Les habitants de #Gemeinde_f ont rejeté l'initiative des Vert'libéraux, tout comme le canton.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix une contribution de solidarité pour les plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix une contribution de solidarité de la part des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui une contribution de solidarité pour les plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui une contribution de solidarité de la part des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à une contribution de solidarité pour les plus riches . L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à une contribution de solidarité à charge des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>La contribution de solidarité pour les plus riches passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette initiative, qui demande notamment une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans.</t>
+    <t>La contribution de solidarité à charge des plus riches passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette initiative, qui demande notamment une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une contribution de solidarité pour les plus riches . L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une contribution de solidarité à charge des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non une contribution de solidarité pour les plus riches . L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non une contribution de solidarité à charge des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>C'est non à #NeinStimmenInProzent pour cent à #Gemeinde_f à une contribution de solidarité pour les plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>C'est non à #NeinStimmenInProzent pour cent à #Gemeinde_f à une contribution de solidarité à charge des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>La contribution de solidarité pour les plus riches ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette initiative, qui demande notamment une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans.</t>
+    <t>La contribution de solidarité à charge des plus riches ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette initiative, qui demande notamment une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter une contribution de solidarité pour les plus riches et #NeinStimmenAbsolut à le refuser. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter une contribution de solidarité à charge des plus riches et #NeinStimmenAbsolut à la refuser. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté une contribution de solidarité pour les plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté une contribution de solidarité à charge des plus riches. L'initiative prévoit une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans. Deux mesures pérennes s'y ajoutent: un triplement des déductions sociales sur la fortune et un relèvement de 1% du bouclier fiscal.</t>
   </si>
   <si>
-    <t>La contribution de la solidarité payée par les plus riches a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette initiative, qui demande notamment une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans.</t>
+    <t>La contribution de solidarité payée par les plus riches a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette initiative, qui demande notamment une hausse d'impôt de 0,25% sur les fortunes imposables de plus de 3 millions pendant dix ans.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix une révision de l'estimation fiscale des immeubles. La nouvelle loi prévoit une estimation individuelle des immeubles, mais en attendant que celle-ci soit effectuée, elle reconduit l'estimation actuelle en y ajoutant une majoration de 12%.</t>
@@ -1802,7 +1802,7 @@
     <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à une révision de l'estimation fiscale des immeubles. La nouvelle loi prévoit une estimation individuelle des immeubles, mais en attendant que celle-ci soit effectuée, elle reconduit l'estimation actuelle en y ajoutant une majoration de 12%.</t>
   </si>
   <si>
-    <t>La révision de l'estimation fiscale des immeubles passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette loi, qui prévoit une nouvelle estimation individuelle des immeubles, et une majoration de 12% de l'estimation actuelle en attendant.</t>
+    <t>La révision de l'estimation fiscale des immeubles passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette loi, qui prévoit une nouvelle estimation individuelle des immeubles, et, entre-temps, une majoration de 12% de l'estimation actuelle.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une révision de l'estimation fiscale des immeubles. La nouvelle loi prévoit une estimation individuelle des immeubles, mais en attendant que celle-ci soit effectuée, elle reconduit l'estimation actuelle en y ajoutant une majoration de 12%.</t>
@@ -1814,7 +1814,7 @@
     <t>C'est non à #NeinStimmenInProzent pour cent à #Gemeinde_f à une révision de l'estimation fiscale des immeubles. La nouvelle loi prévoit une estimation individuelle des immeubles, mais en attendant que celle-ci soit effectuée, elle reconduit l'estimation actuelle en y ajoutant une majoration de 12%.</t>
   </si>
   <si>
-    <t>La révision de l'estimation fiscale des immeubles ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette loi, qui prévoit une nouvelle estimation individuelle des immeubles, et une majoration de 12% de l'estimation actuelle en attendant.</t>
+    <t>La révision de l'estimation fiscale des immeubles ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette loi, qui prévoit une nouvelle estimation individuelle des immeubles, et, entre-temps, une majoration de 12% de l'estimation actuelle.</t>
   </si>
   <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la révision de l'estimation fiscale des immeubles et #NeinStimmenAbsolut à la refuser. La nouvelle loi prévoit une estimation individuelle des immeubles, mais en attendant que celle-ci soit effectuée, elle reconduit l'estimation actuelle en y ajoutant une majoration de 12%.</t>
@@ -1823,7 +1823,7 @@
     <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté une révision de l'estimation fiscale des immeubles. La nouvelle loi prévoit une estimation individuelle des immeubles, mais en attendant que celle-ci soit effectuée, elle reconduit l'estimation actuelle en y ajoutant une majoration de 12%.</t>
   </si>
   <si>
-    <t>La révision de l'estimation fiscale des immeubles a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette loi, qui prévoit une nouvelle estimation individuelle des immeubles, et une majoration de 12% de l'estimation actuelle en attendant.</t>
+    <t>La révision de l'estimation fiscale des immeubles a été balayée à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette loi, qui prévoit une nouvelle estimation individuelle des immeubles, et, dans l'intervalle, une majoration de 12% de l'estimation actuelle.</t>
   </si>
   <si>
     <t>Kanton</t>
@@ -14544,7 +14544,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>527</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>130</v>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -14684,7 +14684,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9">
@@ -14702,7 +14702,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -14714,7 +14714,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>527</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>130</v>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -14956,7 +14956,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -15028,7 +15028,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>527</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>130</v>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4">
@@ -15135,7 +15135,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9">
@@ -15186,7 +15186,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -15234,7 +15234,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -15246,7 +15246,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -18344,7 +18344,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>527</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>130</v>
@@ -24744,7 +24744,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>115</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>120</v>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>527</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>130</v>
